--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ136"/>
+  <dimension ref="A1:AJ137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -775,13 +775,13 @@
         <v>2.63</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -922,16 +922,16 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
         <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V4" t="n">
         <v>15</v>
@@ -967,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1264,22 +1264,22 @@
         <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
@@ -1633,7 +1633,7 @@
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
         <v>1.18</v>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
         <v>126</v>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1764,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
         <v>1.29</v>
@@ -1785,16 +1785,16 @@
         <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
         <v>34</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>23</v>
@@ -1818,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.03</v>
@@ -1880,16 +1880,16 @@
         <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
         <v>1.3</v>
@@ -1898,22 +1898,22 @@
         <v>3.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X12" t="n">
         <v>41</v>
@@ -1940,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>8.5</v>
@@ -2002,16 +2002,16 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2234,10 +2234,10 @@
         <v>2.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2246,34 +2246,34 @@
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
@@ -2288,7 +2288,7 @@
         <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
@@ -2300,10 +2300,10 @@
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2353,55 +2353,55 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.62</v>
       </c>
-      <c r="O16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" t="n">
         <v>10</v>
       </c>
-      <c r="U16" t="n">
-        <v>12</v>
-      </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -2410,34 +2410,34 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
         <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>1.22</v>
@@ -2547,16 +2547,16 @@
         <v>251</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -2597,19 +2597,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2624,10 +2624,10 @@
         <v>1.67</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
         <v>1.91</v>
@@ -2636,16 +2636,16 @@
         <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
@@ -2654,7 +2654,7 @@
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2669,22 +2669,22 @@
         <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
         <v>34</v>
       </c>
-      <c r="AI18" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2719,19 +2719,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -2758,16 +2758,16 @@
         <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V19" t="n">
         <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
         <v>6.5</v>
@@ -2800,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -2972,22 +2972,22 @@
         <v>1.33</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -3017,13 +3017,13 @@
         <v>81</v>
       </c>
       <c r="Y21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -3085,43 +3085,43 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2.05</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
         <v>9</v>
@@ -3136,16 +3136,16 @@
         <v>19</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
@@ -3160,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3249,13 +3249,13 @@
         <v>6.3</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V23" t="n">
         <v>9.25</v>
       </c>
       <c r="W23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
         <v>18</v>
@@ -3267,7 +3267,7 @@
         <v>7.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB23" t="n">
         <v>18.5</v>
@@ -3279,19 +3279,19 @@
         <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ23" t="n">
         <v>55</v>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.45</v>
@@ -3341,7 +3341,7 @@
         <v>1.09</v>
       </c>
       <c r="K24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
@@ -3356,46 +3356,46 @@
         <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U24" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
         <v>9.75</v>
       </c>
       <c r="W24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3416,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -3451,16 +3451,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
         <v>6.4</v>
@@ -3490,19 +3490,19 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
         <v>37</v>
@@ -3523,16 +3523,16 @@
         <v>1250</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
         <v>45</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
         <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3642,7 +3642,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
@@ -3657,7 +3657,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -3817,46 +3817,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.57</v>
       </c>
-      <c r="M28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
         <v>11</v>
@@ -3874,7 +3874,7 @@
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3883,7 +3883,7 @@
         <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD28" t="n">
         <v>501</v>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -4305,25 +4305,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N32" t="n">
         <v>1.57</v>
@@ -4338,10 +4338,10 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
         <v>8.5</v>
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4377,19 +4377,19 @@
         <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
         <v>81</v>
       </c>
       <c r="AI32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
         <v>41</v>
@@ -4430,7 +4430,7 @@
         <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
         <v>4.2</v>
@@ -4460,10 +4460,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>7.5</v>
@@ -4487,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
         <v>15</v>
@@ -4496,16 +4496,16 @@
         <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4704,19 +4704,19 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T35" t="n">
         <v>7.5</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
         <v>21</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
@@ -4835,13 +4835,13 @@
         <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.06</v>
@@ -5052,10 +5052,10 @@
         <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
         <v>1.95</v>
@@ -5079,13 +5079,13 @@
         <v>6.5</v>
       </c>
       <c r="U38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -5094,13 +5094,13 @@
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
@@ -5109,22 +5109,22 @@
         <v>351</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
         <v>41</v>
       </c>
       <c r="AJ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -5162,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
         <v>1.36</v>
@@ -5171,7 +5171,7 @@
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5281,19 +5281,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
         <v>1.33</v>
@@ -5302,10 +5302,10 @@
         <v>3.25</v>
       </c>
       <c r="N40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P40" t="n">
         <v>1.44</v>
@@ -5326,10 +5326,10 @@
         <v>13</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X40" t="n">
         <v>23</v>
@@ -5338,7 +5338,7 @@
         <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6</v>
@@ -5356,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="AF40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG40" t="n">
         <v>10</v>
@@ -5418,10 +5418,10 @@
         <v>17</v>
       </c>
       <c r="L41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N41" t="n">
         <v>1.53</v>
@@ -5442,7 +5442,7 @@
         <v>1.91</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U41" t="n">
         <v>7</v>
@@ -5451,7 +5451,7 @@
         <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
@@ -5463,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -5475,7 +5475,7 @@
         <v>251</v>
       </c>
       <c r="AE41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5549,7 +5549,7 @@
         <v>2.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5603,10 +5603,10 @@
         <v>13</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>23</v>
@@ -5653,13 +5653,13 @@
         <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>7.5</v>
@@ -5722,7 +5722,7 @@
         <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG43" t="n">
         <v>17</v>
@@ -5769,19 +5769,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
         <v>1.29</v>
@@ -5790,10 +5790,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5802,22 +5802,22 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -5829,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
         <v>17</v>
@@ -5847,16 +5847,16 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="n">
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -5894,10 +5894,10 @@
         <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5912,7 +5912,7 @@
         <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
         <v>2.2</v>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
@@ -6034,22 +6034,22 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O46" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T46" t="n">
         <v>12</v>
@@ -6073,10 +6073,10 @@
         <v>13</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>41</v>
@@ -6141,19 +6141,19 @@
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N47" t="n">
         <v>2.05</v>
@@ -6177,10 +6177,10 @@
         <v>7.5</v>
       </c>
       <c r="U47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6290,28 +6290,28 @@
         <v>2.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V48" t="n">
         <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X48" t="n">
         <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
         <v>11</v>
@@ -6329,7 +6329,7 @@
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
@@ -6382,10 +6382,10 @@
         <v>3.6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J49" t="n">
         <v>1.1</v>
@@ -6400,10 +6400,10 @@
         <v>2.38</v>
       </c>
       <c r="N49" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P49" t="n">
         <v>1.62</v>
@@ -6504,7 +6504,7 @@
         <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>2.55</v>
@@ -6513,7 +6513,7 @@
         <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>1.36</v>
@@ -6623,19 +6623,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J51" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.3</v>
@@ -6644,10 +6644,10 @@
         <v>3.4</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O51" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P51" t="n">
         <v>1.4</v>
@@ -6656,19 +6656,19 @@
         <v>2.75</v>
       </c>
       <c r="R51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U51" t="n">
         <v>6</v>
       </c>
       <c r="V51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W51" t="n">
         <v>9</v>
@@ -6683,7 +6683,7 @@
         <v>11</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
         <v>26</v>
@@ -6699,7 +6699,7 @@
         <v>34</v>
       </c>
       <c r="AG51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH51" t="n">
         <v>81</v>
@@ -6743,13 +6743,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J52" t="n">
         <v>1.06</v>
@@ -6758,10 +6758,10 @@
         <v>10</v>
       </c>
       <c r="L52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N52" t="n">
         <v>2.1</v>
@@ -6806,7 +6806,7 @@
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
         <v>51</v>
@@ -6827,7 +6827,7 @@
         <v>34</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
         <v>34</v>
@@ -6874,10 +6874,10 @@
         <v>3.8</v>
       </c>
       <c r="J53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L53" t="n">
         <v>1.25</v>
@@ -6886,10 +6886,10 @@
         <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -6990,16 +6990,16 @@
         <v>3.4</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7008,10 +7008,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -7026,7 +7026,7 @@
         <v>1.83</v>
       </c>
       <c r="T54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U54" t="n">
         <v>17</v>
@@ -7044,7 +7044,7 @@
         <v>41</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -7056,7 +7056,7 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE54" t="n">
         <v>7</v>
@@ -7071,7 +7071,7 @@
         <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7151,13 +7151,13 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V55" t="n">
         <v>11</v>
       </c>
       <c r="W55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X55" t="n">
         <v>23</v>
@@ -7166,7 +7166,7 @@
         <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7178,16 +7178,16 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF55" t="n">
         <v>12</v>
       </c>
       <c r="AG55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH55" t="n">
         <v>26</v>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J56" t="n">
         <v>1.07</v>
@@ -7279,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -7300,16 +7300,16 @@
         <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF56" t="n">
         <v>17</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH56" t="n">
         <v>41</v>
@@ -7353,25 +7353,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
         <v>2.1</v>
@@ -7395,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="U57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V57" t="n">
         <v>9.5</v>
@@ -7410,7 +7410,7 @@
         <v>29</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -7425,13 +7425,13 @@
         <v>301</v>
       </c>
       <c r="AE57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>15</v>
       </c>
       <c r="AG57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH57" t="n">
         <v>34</v>
@@ -7475,13 +7475,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J58" t="n">
         <v>1.05</v>
@@ -7496,28 +7496,28 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O58" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S58" t="n">
         <v>2</v>
       </c>
-      <c r="P58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
@@ -7529,19 +7529,19 @@
         <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
         <v>6.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD58" t="n">
         <v>201</v>
@@ -7556,7 +7556,7 @@
         <v>15</v>
       </c>
       <c r="AH58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI58" t="n">
         <v>34</v>
@@ -7597,19 +7597,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H59" t="n">
         <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L59" t="n">
         <v>1.18</v>
@@ -7639,13 +7639,13 @@
         <v>8.5</v>
       </c>
       <c r="U59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V59" t="n">
         <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X59" t="n">
         <v>12</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="Z59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD59" t="n">
         <v>201</v>
@@ -7719,7 +7719,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
@@ -7731,37 +7731,37 @@
         <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M60" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O60" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V60" t="n">
         <v>8.5</v>
@@ -7773,25 +7773,25 @@
         <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC60" t="n">
         <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF60" t="n">
         <v>23</v>
@@ -7847,7 +7847,7 @@
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7919,13 +7919,13 @@
         <v>9.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH61" t="n">
         <v>17</v>
       </c>
       <c r="AI61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ61" t="n">
         <v>26</v>
@@ -7972,10 +7972,10 @@
         <v>6.5</v>
       </c>
       <c r="J62" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K62" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L62" t="n">
         <v>1.29</v>
@@ -7984,10 +7984,10 @@
         <v>3.5</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O62" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P62" t="n">
         <v>1.4</v>
@@ -8096,34 +8096,34 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N63" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O63" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P63" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T63" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U63" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V63" t="n">
         <v>7.6</v>
@@ -8135,16 +8135,16 @@
         <v>14.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA63" t="n">
         <v>5.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC63" t="n">
         <v>40</v>
@@ -8153,7 +8153,7 @@
         <v>250</v>
       </c>
       <c r="AE63" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF63" t="n">
         <v>12</v>
@@ -8165,10 +8165,10 @@
         <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -8203,59 +8203,59 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M64" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S64" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="T64" t="n">
         <v>8.5</v>
       </c>
       <c r="U64" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V64" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W64" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X64" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB64" t="n">
         <v>10.75</v>
@@ -8267,22 +8267,22 @@
         <v>250</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH64" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -8320,7 +8320,7 @@
         <v>2.42</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
         <v>2.55</v>
@@ -8328,10 +8328,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M65" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N65" t="n">
         <v>1.6</v>
@@ -8342,28 +8342,28 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S65" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="T65" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U65" t="n">
         <v>12.5</v>
       </c>
       <c r="V65" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W65" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X65" t="n">
         <v>14.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z65" t="n">
         <v>12.5</v>
@@ -8381,7 +8381,7 @@
         <v>150</v>
       </c>
       <c r="AE65" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF65" t="n">
         <v>12.5</v>
@@ -8393,7 +8393,7 @@
         <v>24</v>
       </c>
       <c r="AI65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ65" t="n">
         <v>18.5</v>
@@ -8434,7 +8434,7 @@
         <v>2.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>2.9</v>
@@ -8443,7 +8443,7 @@
         <v>1.08</v>
       </c>
       <c r="K66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.4</v>
@@ -8452,16 +8452,16 @@
         <v>2.75</v>
       </c>
       <c r="N66" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R66" t="n">
         <v>1.91</v>
@@ -8482,7 +8482,7 @@
         <v>23</v>
       </c>
       <c r="X66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y66" t="n">
         <v>34</v>
@@ -8494,7 +8494,7 @@
         <v>6</v>
       </c>
       <c r="AB66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
         <v>51</v>
@@ -8509,7 +8509,7 @@
         <v>13</v>
       </c>
       <c r="AG66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
         <v>29</v>
@@ -8574,10 +8574,10 @@
         <v>3.25</v>
       </c>
       <c r="N67" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O67" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8934,16 +8934,16 @@
         <v>11</v>
       </c>
       <c r="L70" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M70" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N70" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O70" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P70" t="n">
         <v>1.4</v>
@@ -9178,7 +9178,7 @@
         <v>6.2</v>
       </c>
       <c r="L72" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M72" t="n">
         <v>2.4</v>
@@ -9214,10 +9214,10 @@
         <v>21</v>
       </c>
       <c r="X72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y72" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z72" t="n">
         <v>6.8</v>
@@ -9235,10 +9235,10 @@
         <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF72" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG72" t="n">
         <v>12.5</v>
@@ -9320,10 +9320,10 @@
         <v>1.78</v>
       </c>
       <c r="T73" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U73" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V73" t="n">
         <v>9.25</v>
@@ -9332,16 +9332,16 @@
         <v>25</v>
       </c>
       <c r="X73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y73" t="n">
         <v>35</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB73" t="n">
         <v>15</v>
@@ -9350,25 +9350,25 @@
         <v>80</v>
       </c>
       <c r="AD73" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE73" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF73" t="n">
         <v>15</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH73" t="n">
         <v>40</v>
       </c>
       <c r="AI73" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -9403,13 +9403,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H74" t="n">
         <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9432,22 +9432,22 @@
         <v>2.47</v>
       </c>
       <c r="R74" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S74" t="n">
         <v>1.75</v>
       </c>
       <c r="T74" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U74" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="V74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X74" t="n">
         <v>32</v>
@@ -9471,19 +9471,19 @@
         <v>800</v>
       </c>
       <c r="AE74" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF74" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG74" t="n">
         <v>9</v>
       </c>
       <c r="AH74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ74" t="n">
         <v>35</v>
@@ -9527,7 +9527,7 @@
         <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -9562,7 +9562,7 @@
         <v>7.9</v>
       </c>
       <c r="V75" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W75" t="n">
         <v>15.5</v>
@@ -9595,7 +9595,7 @@
         <v>21</v>
       </c>
       <c r="AG75" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH75" t="n">
         <v>65</v>
@@ -9653,7 +9653,7 @@
         <v>1.36</v>
       </c>
       <c r="M76" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N76" t="n">
         <v>2.05</v>
@@ -9662,22 +9662,22 @@
         <v>1.6</v>
       </c>
       <c r="P76" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S76" t="n">
         <v>1.65</v>
       </c>
       <c r="T76" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U76" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V76" t="n">
         <v>8.5</v>
@@ -9692,13 +9692,13 @@
         <v>35</v>
       </c>
       <c r="Z76" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA76" t="n">
         <v>6.8</v>
       </c>
       <c r="AB76" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC76" t="n">
         <v>110</v>
@@ -9707,10 +9707,10 @@
         <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG76" t="n">
         <v>16.5</v>
@@ -9719,10 +9719,10 @@
         <v>90</v>
       </c>
       <c r="AI76" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ76" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -9760,10 +9760,10 @@
         <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I77" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -9810,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="Z77" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
         <v>7.5</v>
@@ -9825,10 +9825,10 @@
         <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="n">
         <v>21</v>
@@ -9837,7 +9837,7 @@
         <v>150</v>
       </c>
       <c r="AI77" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ77" t="n">
         <v>80</v>
@@ -9875,7 +9875,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H78" t="n">
         <v>2.8</v>
@@ -9904,22 +9904,22 @@
         <v>2.15</v>
       </c>
       <c r="R78" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="n">
         <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U78" t="n">
         <v>14</v>
       </c>
       <c r="V78" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X78" t="n">
         <v>30</v>
@@ -9937,16 +9937,16 @@
         <v>16</v>
       </c>
       <c r="AC78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD78" t="n">
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG78" t="n">
         <v>10</v>
@@ -9955,7 +9955,7 @@
         <v>29</v>
       </c>
       <c r="AI78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ78" t="n">
         <v>40</v>
@@ -10474,10 +10474,10 @@
         <v>7.5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K83" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L83" t="n">
         <v>1.29</v>
@@ -10596,22 +10596,22 @@
         <v>2.5</v>
       </c>
       <c r="J84" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M84" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N84" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O84" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P84" t="n">
         <v>1.57</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>2.9</v>
       </c>
       <c r="I85" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J85" t="n">
         <v>1.1</v>
@@ -10748,13 +10748,13 @@
         <v>1.67</v>
       </c>
       <c r="T85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U85" t="n">
         <v>12</v>
       </c>
       <c r="V85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W85" t="n">
         <v>29</v>
@@ -10790,7 +10790,7 @@
         <v>11</v>
       </c>
       <c r="AH85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI85" t="n">
         <v>26</v>
@@ -10953,13 +10953,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10980,28 +10980,28 @@
         <v>1.95</v>
       </c>
       <c r="P87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R87" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V87" t="n">
         <v>9</v>
       </c>
       <c r="W87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X87" t="n">
         <v>17</v>
@@ -11031,7 +11031,7 @@
         <v>17</v>
       </c>
       <c r="AG87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH87" t="n">
         <v>34</v>
@@ -11040,7 +11040,7 @@
         <v>26</v>
       </c>
       <c r="AJ87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -11075,94 +11075,94 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H88" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I88" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J88" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L88" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M88" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="N88" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S88" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T88" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U88" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="V88" t="n">
         <v>8.5</v>
       </c>
       <c r="W88" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X88" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y88" t="n">
         <v>37</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD88" t="n">
         <v>101</v>
       </c>
       <c r="AE88" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH88" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI88" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ88" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -11197,88 +11197,88 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J89" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K89" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="L89" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M89" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="N89" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="O89" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P89" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R89" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T89" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="U89" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="V89" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W89" t="n">
+        <v>21</v>
+      </c>
+      <c r="X89" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF89" t="n">
         <v>17.5</v>
       </c>
-      <c r="X89" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>20</v>
-      </c>
       <c r="AG89" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI89" t="n">
         <v>37</v>
@@ -11319,55 +11319,55 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J90" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K90" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M90" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="N90" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P90" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R90" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S90" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T90" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="U90" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V90" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W90" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X90" t="n">
         <v>21</v>
@@ -11376,37 +11376,37 @@
         <v>35</v>
       </c>
       <c r="Z90" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB90" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC90" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD90" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE90" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF90" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG90" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI90" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ90" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -11441,94 +11441,94 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H91" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="J91" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L91" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M91" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P91" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R91" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S91" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T91" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U91" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="V91" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W91" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y91" t="n">
         <v>30</v>
       </c>
       <c r="Z91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA91" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB91" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC91" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD91" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE91" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG91" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI91" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="92">
@@ -11581,7 +11581,7 @@
         <v>1.44</v>
       </c>
       <c r="M92" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N92" t="n">
         <v>2.3</v>
@@ -11602,22 +11602,22 @@
         <v>1.75</v>
       </c>
       <c r="T92" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U92" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V92" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W92" t="n">
         <v>19.5</v>
       </c>
       <c r="X92" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z92" t="n">
         <v>5.8</v>
@@ -11626,31 +11626,31 @@
         <v>5.9</v>
       </c>
       <c r="AB92" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD92" t="n">
         <v>900</v>
       </c>
       <c r="AE92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH92" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI92" t="n">
         <v>40</v>
       </c>
       <c r="AJ92" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -11807,13 +11807,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I94" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J94" t="n">
         <v>1.11</v>
@@ -11840,25 +11840,25 @@
         <v>2.25</v>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S94" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T94" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U94" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V94" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y94" t="n">
         <v>50</v>
@@ -11867,13 +11867,13 @@
         <v>5.6</v>
       </c>
       <c r="AA94" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB94" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD94" t="n">
         <v>101</v>
@@ -11882,16 +11882,16 @@
         <v>6.6</v>
       </c>
       <c r="AF94" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH94" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ94" t="n">
         <v>45</v>
@@ -11929,10 +11929,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="H95" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="I95" t="n">
         <v>18.5</v>
@@ -11941,58 +11941,58 @@
         <v>1.04</v>
       </c>
       <c r="K95" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L95" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M95" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="N95" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O95" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P95" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="S95" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T95" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U95" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="V95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W95" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X95" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y95" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z95" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA95" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC95" t="n">
         <v>500</v>
@@ -12016,7 +12016,7 @@
         <v>600</v>
       </c>
       <c r="AJ95" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96">
@@ -12090,7 +12090,7 @@
         <v>1.75</v>
       </c>
       <c r="T96" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U96" t="n">
         <v>12</v>
@@ -12173,13 +12173,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I97" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J97" t="n">
         <v>1.11</v>
@@ -12212,19 +12212,19 @@
         <v>1.7</v>
       </c>
       <c r="T97" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U97" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V97" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W97" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y97" t="n">
         <v>40</v>
@@ -12245,19 +12245,19 @@
         <v>101</v>
       </c>
       <c r="AE97" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG97" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI97" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ97" t="n">
         <v>55</v>
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -12333,16 +12333,16 @@
         <v>7.3</v>
       </c>
       <c r="U98" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V98" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="W98" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X98" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y98" t="n">
         <v>21</v>
@@ -12354,7 +12354,7 @@
         <v>5.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC98" t="n">
         <v>40</v>
@@ -12366,19 +12366,19 @@
         <v>7.9</v>
       </c>
       <c r="AF98" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG98" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI98" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -12413,13 +12413,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H99" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I99" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12444,16 +12444,16 @@
         <v>1.56</v>
       </c>
       <c r="T99" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U99" t="n">
         <v>4.9</v>
       </c>
       <c r="V99" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W99" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X99" t="n">
         <v>9</v>
@@ -12462,22 +12462,22 @@
         <v>26</v>
       </c>
       <c r="Z99" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB99" t="n">
         <v>24</v>
       </c>
       <c r="AC99" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD99" t="n">
         <v>500</v>
       </c>
       <c r="AE99" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF99" t="n">
         <v>120</v>
@@ -12486,7 +12486,7 @@
         <v>40</v>
       </c>
       <c r="AH99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AI99" t="n">
         <v>200</v>
@@ -12527,22 +12527,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L100" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
@@ -12554,10 +12554,10 @@
         <v>2.05</v>
       </c>
       <c r="P100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R100" t="n">
         <v>1.62</v>
@@ -12566,19 +12566,19 @@
         <v>2.2</v>
       </c>
       <c r="T100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V100" t="n">
         <v>12</v>
       </c>
       <c r="W100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y100" t="n">
         <v>29</v>
@@ -12599,19 +12599,19 @@
         <v>151</v>
       </c>
       <c r="AE100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG100" t="n">
         <v>9</v>
       </c>
       <c r="AH100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ100" t="n">
         <v>23</v>
@@ -12680,31 +12680,31 @@
         <v>2.15</v>
       </c>
       <c r="T101" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U101" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V101" t="n">
         <v>8.5</v>
       </c>
       <c r="W101" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X101" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA101" t="n">
         <v>6.9</v>
       </c>
       <c r="AB101" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC101" t="n">
         <v>45</v>
@@ -12713,10 +12713,10 @@
         <v>300</v>
       </c>
       <c r="AE101" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG101" t="n">
         <v>11.25</v>
@@ -12725,10 +12725,10 @@
         <v>45</v>
       </c>
       <c r="AI101" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ101" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -12772,37 +12772,37 @@
         <v>7</v>
       </c>
       <c r="J102" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M102" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N102" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O102" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P102" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q102" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R102" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S102" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U102" t="n">
         <v>7.5</v>
@@ -12820,25 +12820,25 @@
         <v>23</v>
       </c>
       <c r="Z102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA102" t="n">
         <v>8</v>
       </c>
       <c r="AB102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC102" t="n">
         <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG102" t="n">
         <v>21</v>
@@ -12850,7 +12850,7 @@
         <v>51</v>
       </c>
       <c r="AJ102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12894,13 +12894,13 @@
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L103" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M103" t="n">
         <v>3.4</v>
@@ -12918,10 +12918,10 @@
         <v>2.63</v>
       </c>
       <c r="R103" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -13013,22 +13013,22 @@
         <v>6.5</v>
       </c>
       <c r="I104" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K104" t="n">
         <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M104" t="n">
         <v>4.33</v>
       </c>
       <c r="N104" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O104" t="n">
         <v>2.2</v>
@@ -13043,7 +13043,7 @@
         <v>2.25</v>
       </c>
       <c r="S104" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -13067,7 +13067,7 @@
         <v>15</v>
       </c>
       <c r="AA104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB104" t="n">
         <v>29</v>
@@ -13079,7 +13079,7 @@
         <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF104" t="n">
         <v>41</v>
@@ -13094,7 +13094,7 @@
         <v>67</v>
       </c>
       <c r="AJ104" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105">
@@ -13138,16 +13138,16 @@
         <v>2.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K105" t="n">
         <v>7</v>
       </c>
       <c r="L105" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M105" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N105" t="n">
         <v>2.4</v>
@@ -13195,10 +13195,10 @@
         <v>17</v>
       </c>
       <c r="AC105" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD105" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE105" t="n">
         <v>7</v>
@@ -13213,7 +13213,7 @@
         <v>26</v>
       </c>
       <c r="AI105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
@@ -13260,13 +13260,13 @@
         <v>4.75</v>
       </c>
       <c r="J106" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K106" t="n">
         <v>9</v>
       </c>
       <c r="L106" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
@@ -13373,22 +13373,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H107" t="n">
         <v>4.75</v>
       </c>
       <c r="I107" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K107" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M107" t="n">
         <v>3.5</v>
@@ -13412,7 +13412,7 @@
         <v>1.7</v>
       </c>
       <c r="T107" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U107" t="n">
         <v>6.5</v>
@@ -13421,7 +13421,7 @@
         <v>8.5</v>
       </c>
       <c r="W107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X107" t="n">
         <v>13</v>
@@ -13448,7 +13448,7 @@
         <v>13</v>
       </c>
       <c r="AF107" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG107" t="n">
         <v>19</v>
@@ -13495,37 +13495,37 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H108" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K108" t="n">
         <v>15</v>
       </c>
       <c r="L108" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="n">
         <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R108" t="n">
         <v>2.25</v>
@@ -13534,13 +13534,13 @@
         <v>1.57</v>
       </c>
       <c r="T108" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U108" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W108" t="n">
         <v>7</v>
@@ -13558,7 +13558,7 @@
         <v>11</v>
       </c>
       <c r="AB108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC108" t="n">
         <v>81</v>
@@ -13617,19 +13617,19 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I109" t="n">
         <v>3.25</v>
       </c>
       <c r="J109" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L109" t="n">
         <v>1.4</v>
@@ -13674,13 +13674,13 @@
         <v>34</v>
       </c>
       <c r="Z109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA109" t="n">
         <v>6</v>
       </c>
       <c r="AB109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC109" t="n">
         <v>51</v>
@@ -13689,7 +13689,7 @@
         <v>351</v>
       </c>
       <c r="AE109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF109" t="n">
         <v>17</v>
@@ -13701,7 +13701,7 @@
         <v>41</v>
       </c>
       <c r="AI109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ109" t="n">
         <v>41</v>
@@ -13748,10 +13748,10 @@
         <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L110" t="n">
         <v>1.29</v>
@@ -13760,10 +13760,10 @@
         <v>3.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O110" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P110" t="n">
         <v>1.4</v>
@@ -13867,25 +13867,25 @@
         <v>2.9</v>
       </c>
       <c r="I111" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L111" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M111" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O111" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13894,13 +13894,13 @@
         <v>2.75</v>
       </c>
       <c r="R111" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S111" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T111" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U111" t="n">
         <v>13</v>
@@ -13918,25 +13918,25 @@
         <v>29</v>
       </c>
       <c r="Z111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA111" t="n">
         <v>6</v>
       </c>
       <c r="AB111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC111" t="n">
         <v>41</v>
       </c>
       <c r="AD111" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE111" t="n">
         <v>9.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG111" t="n">
         <v>11</v>
@@ -13983,19 +13983,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L112" t="n">
         <v>1.5</v>
@@ -14004,10 +14004,10 @@
         <v>2.5</v>
       </c>
       <c r="N112" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O112" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P112" t="n">
         <v>1.57</v>
@@ -14031,7 +14031,7 @@
         <v>9.5</v>
       </c>
       <c r="W112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X112" t="n">
         <v>19</v>
@@ -14040,7 +14040,7 @@
         <v>41</v>
       </c>
       <c r="Z112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA112" t="n">
         <v>6.5</v>
@@ -14105,19 +14105,19 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J113" t="n">
         <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L113" t="n">
         <v>1.33</v>
@@ -14174,7 +14174,7 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
         <v>8</v>
@@ -14186,7 +14186,7 @@
         <v>10</v>
       </c>
       <c r="AH113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI113" t="n">
         <v>21</v>
@@ -14227,88 +14227,88 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K114" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L114" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M114" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S114" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U114" t="n">
         <v>12</v>
       </c>
       <c r="V114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z114" t="n">
         <v>11</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC114" t="n">
         <v>41</v>
       </c>
       <c r="AD114" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE114" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI114" t="n">
         <v>23</v>
@@ -14349,13 +14349,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>5.25</v>
       </c>
       <c r="I115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J115" t="n">
         <v>1.03</v>
@@ -14364,16 +14364,16 @@
         <v>10</v>
       </c>
       <c r="L115" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M115" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N115" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O115" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P115" t="n">
         <v>1.3</v>
@@ -14382,10 +14382,10 @@
         <v>3.4</v>
       </c>
       <c r="R115" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S115" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T115" t="n">
         <v>7.5</v>
@@ -14394,7 +14394,7 @@
         <v>6.5</v>
       </c>
       <c r="V115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W115" t="n">
         <v>8</v>
@@ -14403,25 +14403,25 @@
         <v>12</v>
       </c>
       <c r="Y115" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA115" t="n">
         <v>10</v>
       </c>
       <c r="AB115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC115" t="n">
         <v>67</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF115" t="n">
         <v>41</v>
@@ -14471,13 +14471,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
         <v>3.4</v>
       </c>
       <c r="I116" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
@@ -14504,10 +14504,10 @@
         <v>3.25</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T116" t="n">
         <v>13</v>
@@ -14516,13 +14516,13 @@
         <v>19</v>
       </c>
       <c r="V116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W116" t="n">
         <v>34</v>
       </c>
       <c r="X116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y116" t="n">
         <v>29</v>
@@ -14534,28 +14534,28 @@
         <v>7</v>
       </c>
       <c r="AB116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC116" t="n">
         <v>41</v>
       </c>
       <c r="AD116" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG116" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF116" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>9</v>
-      </c>
       <c r="AH116" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI116" t="n">
         <v>17</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>15</v>
       </c>
       <c r="AJ116" t="n">
         <v>23</v>
@@ -14602,10 +14602,10 @@
         <v>4.33</v>
       </c>
       <c r="J117" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L117" t="n">
         <v>1.36</v>
@@ -14614,10 +14614,10 @@
         <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O117" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P117" t="n">
         <v>1.44</v>
@@ -14662,7 +14662,7 @@
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE117" t="n">
         <v>11</v>
@@ -14715,19 +14715,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J118" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L118" t="n">
         <v>1.44</v>
@@ -14736,10 +14736,10 @@
         <v>2.63</v>
       </c>
       <c r="N118" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O118" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P118" t="n">
         <v>1.57</v>
@@ -14784,7 +14784,7 @@
         <v>67</v>
       </c>
       <c r="AD118" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE118" t="n">
         <v>7.5</v>
@@ -14852,16 +14852,16 @@
         <v>15</v>
       </c>
       <c r="L119" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M119" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O119" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -14959,19 +14959,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H120" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J120" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
         <v>1.4</v>
@@ -15001,13 +15001,13 @@
         <v>6</v>
       </c>
       <c r="U120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V120" t="n">
         <v>9.5</v>
       </c>
       <c r="W120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X120" t="n">
         <v>19</v>
@@ -15016,10 +15016,10 @@
         <v>34</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA120" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB120" t="n">
         <v>19</v>
@@ -15034,7 +15034,7 @@
         <v>10</v>
       </c>
       <c r="AF120" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG120" t="n">
         <v>15</v>
@@ -15081,13 +15081,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I121" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J121" t="n">
         <v>1.07</v>
@@ -15096,22 +15096,22 @@
         <v>7.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M121" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O121" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R121" t="n">
         <v>2</v>
@@ -15120,52 +15120,52 @@
         <v>1.73</v>
       </c>
       <c r="T121" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V121" t="n">
         <v>9</v>
       </c>
-      <c r="V121" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W121" t="n">
+        <v>13</v>
+      </c>
+      <c r="X121" t="n">
         <v>17</v>
-      </c>
-      <c r="X121" t="n">
-        <v>19</v>
       </c>
       <c r="Y121" t="n">
         <v>34</v>
       </c>
       <c r="Z121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA121" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB121" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG121" t="n">
         <v>17</v>
       </c>
-      <c r="AC121" t="n">
+      <c r="AH121" t="n">
         <v>51</v>
       </c>
-      <c r="AD121" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH121" t="n">
+      <c r="AI121" t="n">
         <v>41</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>34</v>
       </c>
       <c r="AJ121" t="n">
         <v>41</v>
@@ -15203,19 +15203,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="H122" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L122" t="n">
         <v>1.33</v>
@@ -15236,25 +15236,25 @@
         <v>2.63</v>
       </c>
       <c r="R122" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U122" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V122" t="n">
         <v>9</v>
       </c>
       <c r="W122" t="n">
+        <v>12</v>
+      </c>
+      <c r="X122" t="n">
         <v>15</v>
-      </c>
-      <c r="X122" t="n">
-        <v>17</v>
       </c>
       <c r="Y122" t="n">
         <v>29</v>
@@ -15263,10 +15263,10 @@
         <v>8.5</v>
       </c>
       <c r="AA122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC122" t="n">
         <v>51</v>
@@ -15275,22 +15275,22 @@
         <v>700</v>
       </c>
       <c r="AE122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF122" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH122" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI122" t="n">
         <v>41</v>
       </c>
-      <c r="AI122" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ122" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123">
@@ -15340,16 +15340,16 @@
         <v>19</v>
       </c>
       <c r="L123" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M123" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N123" t="n">
         <v>1.5</v>
       </c>
       <c r="O123" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P123" t="n">
         <v>1.25</v>
@@ -15373,7 +15373,7 @@
         <v>8.5</v>
       </c>
       <c r="W123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X123" t="n">
         <v>11</v>
@@ -15447,10 +15447,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I124" t="n">
         <v>2.7</v>
@@ -15468,25 +15468,25 @@
         <v>3.4</v>
       </c>
       <c r="N124" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P124" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R124" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S124" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U124" t="n">
         <v>13</v>
@@ -15504,22 +15504,22 @@
         <v>29</v>
       </c>
       <c r="Z124" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB124" t="n">
         <v>13</v>
       </c>
       <c r="AC124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF124" t="n">
         <v>13</v>
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H129" t="n">
         <v>5.5</v>
@@ -16066,10 +16066,10 @@
         <v>8</v>
       </c>
       <c r="J129" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L129" t="n">
         <v>1.17</v>
@@ -16078,10 +16078,10 @@
         <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O129" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P129" t="n">
         <v>1.29</v>
@@ -16090,22 +16090,22 @@
         <v>3.5</v>
       </c>
       <c r="R129" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S129" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T129" t="n">
         <v>8</v>
       </c>
       <c r="U129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X129" t="n">
         <v>11</v>
@@ -16114,19 +16114,19 @@
         <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA129" t="n">
         <v>11</v>
       </c>
       <c r="AB129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC129" t="n">
         <v>67</v>
       </c>
       <c r="AD129" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE129" t="n">
         <v>21</v>
@@ -16336,7 +16336,7 @@
         <v>1.65</v>
       </c>
       <c r="T131" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U131" t="n">
         <v>16</v>
@@ -16752,7 +16752,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>QwKgcJZq</t>
+          <t>bmEPR2kL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -16762,119 +16762,119 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="H135" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="I135" t="n">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="J135" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K135" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="L135" t="n">
         <v>1.4</v>
       </c>
       <c r="M135" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="N135" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O135" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P135" t="n">
         <v>1.5</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S135" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T135" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="U135" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V135" t="n">
+        <v>9</v>
+      </c>
+      <c r="W135" t="n">
+        <v>17</v>
+      </c>
+      <c r="X135" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE135" t="n">
         <v>9.5</v>
       </c>
-      <c r="W135" t="n">
-        <v>28</v>
-      </c>
-      <c r="X135" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AF135" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG135" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AH135" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI135" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ135" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2uFE6NCc</t>
+          <t>QwKgcJZq</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -16894,99 +16894,221 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="H136" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I136" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L136" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M136" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="N136" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="O136" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P136" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="S136" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T136" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="U136" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="V136" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="W136" t="n">
+        <v>32</v>
+      </c>
+      <c r="X136" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI136" t="n">
         <v>25</v>
-      </c>
-      <c r="X136" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>28</v>
       </c>
       <c r="AJ136" t="n">
         <v>37</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2uFE6NCc</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T137" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U137" t="n">
+        <v>12</v>
+      </c>
+      <c r="V137" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W137" t="n">
+        <v>27</v>
+      </c>
+      <c r="X137" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -662,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -778,10 +778,10 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -922,10 +922,10 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
         <v>9</v>
@@ -967,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1062,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1142,10 +1142,10 @@
         <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1166,10 +1166,10 @@
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
@@ -1199,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
@@ -1282,16 +1282,16 @@
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>7.5</v>
@@ -1312,22 +1312,22 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1336,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1410,16 +1410,16 @@
         <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>9.5</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1464,7 +1464,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
@@ -1636,31 +1636,31 @@
         <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
         <v>12</v>
@@ -1690,13 +1690,13 @@
         <v>34</v>
       </c>
       <c r="AD10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -2362,10 +2362,10 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2487,7 +2487,7 @@
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
         <v>1.22</v>
@@ -2496,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2606,10 +2606,10 @@
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2719,94 +2719,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
         <v>10</v>
       </c>
       <c r="W19" t="n">
+        <v>23</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
         <v>26</v>
       </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>34</v>
-      </c>
       <c r="Z19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2862,10 +2862,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2874,25 +2874,25 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
@@ -2901,34 +2901,34 @@
         <v>6.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI20" t="n">
         <v>51</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2972,10 +2972,10 @@
         <v>1.33</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="V24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
         <v>22</v>
@@ -3389,7 +3389,7 @@
         <v>6.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB24" t="n">
         <v>17.5</v>
@@ -3416,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3490,10 +3490,10 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V25" t="n">
         <v>9.5</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
         <v>6.4</v>
@@ -3523,7 +3523,7 @@
         <v>1250</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>20</v>
@@ -3538,7 +3538,7 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3588,16 +3588,16 @@
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3615,46 +3615,46 @@
         <v>7</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="n">
         <v>34</v>
@@ -4686,10 +4686,10 @@
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N35" t="n">
         <v>2.1</v>
@@ -4716,7 +4716,7 @@
         <v>10</v>
       </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
         <v>21</v>
@@ -4740,7 +4740,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
         <v>9.5</v>
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4802,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -4921,13 +4921,13 @@
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.44</v>
@@ -5046,10 +5046,10 @@
         <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -5171,7 +5171,7 @@
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5415,7 +5415,7 @@
         <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L41" t="n">
         <v>1.14</v>
@@ -5430,22 +5430,22 @@
         <v>2.4</v>
       </c>
       <c r="P41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V41" t="n">
         <v>9</v>
@@ -5466,19 +5466,19 @@
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE41" t="n">
         <v>26</v>
       </c>
       <c r="AF41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
         <v>26</v>
@@ -5540,16 +5540,16 @@
         <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
         <v>2.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O43" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -5707,7 +5707,7 @@
         <v>10</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
         <v>19</v>
@@ -5722,13 +5722,13 @@
         <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI43" t="n">
         <v>41</v>
@@ -5778,10 +5778,10 @@
         <v>5.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
         <v>1.29</v>
@@ -5915,7 +5915,7 @@
         <v>1.62</v>
       </c>
       <c r="O45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
@@ -6034,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O46" t="n">
         <v>2.05</v>
@@ -6135,19 +6135,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
         <v>1.33</v>
@@ -6159,7 +6159,7 @@
         <v>2.05</v>
       </c>
       <c r="O47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6204,7 +6204,7 @@
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE47" t="n">
         <v>9</v>
@@ -6865,19 +6865,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1.25</v>
@@ -6886,10 +6886,10 @@
         <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -6907,13 +6907,13 @@
         <v>8</v>
       </c>
       <c r="U53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
         <v>8.5</v>
       </c>
       <c r="W53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
         <v>15</v>
@@ -6922,7 +6922,7 @@
         <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -6999,31 +6999,31 @@
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N54" t="n">
         <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -7041,10 +7041,10 @@
         <v>29</v>
       </c>
       <c r="Y54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -7056,10 +7056,10 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF54" t="n">
         <v>9.5</v>
@@ -7231,19 +7231,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.4</v>
@@ -7279,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -7294,13 +7294,13 @@
         <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE56" t="n">
         <v>8.5</v>
@@ -7309,7 +7309,7 @@
         <v>17</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
         <v>41</v>
@@ -7353,25 +7353,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H57" t="n">
         <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N57" t="n">
         <v>2.1</v>
@@ -7392,28 +7392,28 @@
         <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W57" t="n">
+        <v>26</v>
+      </c>
+      <c r="X57" t="n">
         <v>21</v>
       </c>
-      <c r="X57" t="n">
-        <v>19</v>
-      </c>
       <c r="Y57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB57" t="n">
         <v>15</v>
@@ -7425,19 +7425,19 @@
         <v>301</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ57" t="n">
         <v>34</v>
@@ -7841,13 +7841,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="U61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W61" t="n">
         <v>41</v>
@@ -7907,22 +7907,22 @@
         <v>15</v>
       </c>
       <c r="AC61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="n">
         <v>201</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG61" t="n">
         <v>9</v>
       </c>
       <c r="AH61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
@@ -7984,10 +7984,10 @@
         <v>3.5</v>
       </c>
       <c r="N62" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P62" t="n">
         <v>1.4</v>
@@ -8120,22 +8120,22 @@
         <v>2.06</v>
       </c>
       <c r="T63" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="U63" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V63" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X63" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z63" t="n">
         <v>9.75</v>
@@ -8153,22 +8153,22 @@
         <v>250</v>
       </c>
       <c r="AE63" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF63" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH63" t="n">
         <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I64" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -8234,31 +8234,31 @@
         <v>2.09</v>
       </c>
       <c r="T64" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V64" t="n">
         <v>8.75</v>
       </c>
       <c r="W64" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X64" t="n">
         <v>18.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z64" t="n">
         <v>10.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB64" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC64" t="n">
         <v>40</v>
@@ -8267,7 +8267,7 @@
         <v>250</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF64" t="n">
         <v>9.5</v>
@@ -8279,7 +8279,7 @@
         <v>17.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ64" t="n">
         <v>21</v>
@@ -8317,13 +8317,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -8348,22 +8348,22 @@
         <v>2.4</v>
       </c>
       <c r="T65" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U65" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="V65" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="W65" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y65" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z65" t="n">
         <v>12.5</v>
@@ -8372,31 +8372,31 @@
         <v>5.9</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD65" t="n">
         <v>150</v>
       </c>
       <c r="AE65" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG65" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -8443,7 +8443,7 @@
         <v>1.08</v>
       </c>
       <c r="K66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L66" t="n">
         <v>1.4</v>
@@ -8452,10 +8452,10 @@
         <v>2.75</v>
       </c>
       <c r="N66" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P66" t="n">
         <v>1.53</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J67" t="n">
         <v>1.06</v>
@@ -8568,16 +8568,16 @@
         <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N67" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O67" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8598,7 +8598,7 @@
         <v>21</v>
       </c>
       <c r="V67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W67" t="n">
         <v>41</v>
@@ -8625,7 +8625,7 @@
         <v>301</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF67" t="n">
         <v>8.5</v>
@@ -8675,19 +8675,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H68" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K68" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8696,10 +8696,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O68" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8708,22 +8708,22 @@
         <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S68" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T68" t="n">
         <v>7.5</v>
       </c>
       <c r="U68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X68" t="n">
         <v>13</v>
@@ -8735,25 +8735,25 @@
         <v>11</v>
       </c>
       <c r="AA68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC68" t="n">
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE68" t="n">
         <v>15</v>
       </c>
       <c r="AF68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH68" t="n">
         <v>51</v>
@@ -8919,13 +8919,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H70" t="n">
         <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J70" t="n">
         <v>1.05</v>
@@ -8946,28 +8946,28 @@
         <v>1.98</v>
       </c>
       <c r="P70" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V70" t="n">
         <v>8.5</v>
       </c>
       <c r="W70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X70" t="n">
         <v>15</v>
@@ -8976,19 +8976,19 @@
         <v>26</v>
       </c>
       <c r="Z70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA70" t="n">
         <v>7</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC70" t="n">
         <v>51</v>
       </c>
       <c r="AD70" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE70" t="n">
         <v>13</v>
@@ -9000,10 +9000,10 @@
         <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -9041,13 +9041,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I71" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -9056,10 +9056,10 @@
         <v>11</v>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N71" t="n">
         <v>1.93</v>
@@ -9074,10 +9074,10 @@
         <v>2.75</v>
       </c>
       <c r="R71" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -9113,7 +9113,7 @@
         <v>201</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
         <v>12</v>
@@ -9178,7 +9178,7 @@
         <v>6.2</v>
       </c>
       <c r="L72" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M72" t="n">
         <v>2.4</v>
@@ -9202,7 +9202,7 @@
         <v>1.65</v>
       </c>
       <c r="T72" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U72" t="n">
         <v>9.25</v>
@@ -9214,43 +9214,43 @@
         <v>21</v>
       </c>
       <c r="X72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
         <v>40</v>
       </c>
       <c r="Z72" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA72" t="n">
         <v>5.9</v>
       </c>
       <c r="AB72" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC72" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD72" t="n">
         <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF72" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH72" t="n">
         <v>50</v>
       </c>
       <c r="AI72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ72" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
@@ -9320,10 +9320,10 @@
         <v>1.78</v>
       </c>
       <c r="T73" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U73" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V73" t="n">
         <v>9.25</v>
@@ -9332,16 +9332,16 @@
         <v>25</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y73" t="n">
         <v>35</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB73" t="n">
         <v>15</v>
@@ -9350,25 +9350,25 @@
         <v>80</v>
       </c>
       <c r="AD73" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE73" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
         <v>15</v>
       </c>
       <c r="AG73" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH73" t="n">
         <v>40</v>
       </c>
       <c r="AI73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ73" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -9524,7 +9524,7 @@
         <v>1.88</v>
       </c>
       <c r="H75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
         <v>3.95</v>
@@ -9535,10 +9535,10 @@
         <v>1.38</v>
       </c>
       <c r="M75" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N75" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O75" t="n">
         <v>1.57</v>
@@ -9589,16 +9589,16 @@
         <v>900</v>
       </c>
       <c r="AE75" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG75" t="n">
         <v>13.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI75" t="n">
         <v>40</v>
@@ -9668,7 +9668,7 @@
         <v>2.37</v>
       </c>
       <c r="R76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
         <v>1.65</v>
@@ -9698,7 +9698,7 @@
         <v>6.8</v>
       </c>
       <c r="AB76" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="n">
         <v>110</v>
@@ -9710,7 +9710,7 @@
         <v>11.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG76" t="n">
         <v>16.5</v>
@@ -9774,10 +9774,10 @@
         <v>2.95</v>
       </c>
       <c r="N77" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P77" t="n">
         <v>1.42</v>
@@ -9810,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="Z77" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA77" t="n">
         <v>7.5</v>
@@ -9837,7 +9837,7 @@
         <v>150</v>
       </c>
       <c r="AI77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="n">
         <v>80</v>
@@ -9875,13 +9875,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H78" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I78" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9898,31 +9898,31 @@
         <v>1.47</v>
       </c>
       <c r="P78" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S78" t="n">
         <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V78" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y78" t="n">
         <v>45</v>
@@ -9937,25 +9937,25 @@
         <v>16</v>
       </c>
       <c r="AC78" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD78" t="n">
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF78" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG78" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ78" t="n">
         <v>40</v>
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I82" t="n">
-        <v>4.85</v>
+        <v>4.2</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -10361,13 +10361,13 @@
         <v>1.25</v>
       </c>
       <c r="M82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N82" t="n">
         <v>1.75</v>
       </c>
       <c r="O82" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10376,61 +10376,61 @@
         <v>2.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T82" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="U82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V82" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="W82" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X82" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z82" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD82" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE82" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG82" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH82" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AI82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -10486,10 +10486,10 @@
         <v>3.5</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O83" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -10590,10 +10590,10 @@
         <v>2.75</v>
       </c>
       <c r="H84" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I84" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J84" t="n">
         <v>1.11</v>
@@ -10602,10 +10602,10 @@
         <v>6.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M84" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N84" t="n">
         <v>2.7</v>
@@ -10614,19 +10614,19 @@
         <v>1.44</v>
       </c>
       <c r="P84" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R84" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U84" t="n">
         <v>12</v>
@@ -10644,13 +10644,13 @@
         <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA84" t="n">
         <v>6</v>
       </c>
       <c r="AB84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC84" t="n">
         <v>81</v>
@@ -10659,7 +10659,7 @@
         <v>101</v>
       </c>
       <c r="AE84" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF84" t="n">
         <v>11</v>
@@ -10668,10 +10668,10 @@
         <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ84" t="n">
         <v>41</v>
@@ -10831,19 +10831,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.5</v>
@@ -10873,13 +10873,13 @@
         <v>6</v>
       </c>
       <c r="U86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V86" t="n">
         <v>10</v>
       </c>
       <c r="W86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X86" t="n">
         <v>23</v>
@@ -10909,10 +10909,10 @@
         <v>15</v>
       </c>
       <c r="AG86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI86" t="n">
         <v>34</v>
@@ -10968,16 +10968,16 @@
         <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N87" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O87" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P87" t="n">
         <v>1.4</v>
@@ -11075,19 +11075,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H88" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I88" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
         <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.39</v>
@@ -11102,67 +11102,67 @@
         <v>1.62</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R88" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S88" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T88" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U88" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="V88" t="n">
         <v>8.5</v>
       </c>
       <c r="W88" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X88" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y88" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD88" t="n">
         <v>101</v>
       </c>
       <c r="AE88" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF88" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH88" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI88" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="I89" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K89" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L89" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M89" t="n">
         <v>2.8</v>
@@ -11227,7 +11227,7 @@
         <v>1.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R89" t="n">
         <v>1.85</v>
@@ -11236,55 +11236,55 @@
         <v>1.85</v>
       </c>
       <c r="T89" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="U89" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V89" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W89" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X89" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB89" t="n">
         <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD89" t="n">
         <v>700</v>
       </c>
       <c r="AE89" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI89" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
@@ -11319,94 +11319,94 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I90" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J90" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K90" t="n">
+        <v>7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T90" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>22</v>
+      </c>
+      <c r="X90" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA90" t="n">
         <v>6.5</v>
       </c>
-      <c r="L90" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M90" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T90" t="n">
-        <v>7</v>
-      </c>
-      <c r="U90" t="n">
+      <c r="AB90" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG90" t="n">
         <v>10.75</v>
-      </c>
-      <c r="V90" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W90" t="n">
-        <v>24</v>
-      </c>
-      <c r="X90" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH90" t="n">
         <v>32</v>
       </c>
       <c r="AI90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ90" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
@@ -11441,19 +11441,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.34</v>
@@ -11462,73 +11462,73 @@
         <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O91" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P91" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R91" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S91" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T91" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="U91" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="V91" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W91" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="X91" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y91" t="n">
         <v>30</v>
       </c>
       <c r="Z91" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA91" t="n">
         <v>7</v>
       </c>
-      <c r="AA91" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC91" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD91" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE91" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AG91" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AI91" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ91" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92">
@@ -11569,82 +11569,82 @@
         <v>2.95</v>
       </c>
       <c r="I92" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J92" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L92" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M92" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="N92" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O92" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P92" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="R92" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S92" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T92" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U92" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V92" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W92" t="n">
         <v>19.5</v>
       </c>
       <c r="X92" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA92" t="n">
         <v>5.9</v>
       </c>
       <c r="AB92" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD92" t="n">
         <v>900</v>
       </c>
       <c r="AE92" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG92" t="n">
         <v>13</v>
       </c>
       <c r="AH92" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI92" t="n">
         <v>40</v>
@@ -11810,7 +11810,7 @@
         <v>2.72</v>
       </c>
       <c r="H94" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I94" t="n">
         <v>2.55</v>
@@ -11849,10 +11849,10 @@
         <v>6.7</v>
       </c>
       <c r="U94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V94" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W94" t="n">
         <v>32</v>
@@ -11870,7 +11870,7 @@
         <v>5.9</v>
       </c>
       <c r="AB94" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC94" t="n">
         <v>110</v>
@@ -11879,16 +11879,16 @@
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF94" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI94" t="n">
         <v>26</v>
@@ -11929,13 +11929,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H95" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="I95" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="J95" t="n">
         <v>1.04</v>
@@ -11944,10 +11944,10 @@
         <v>8.25</v>
       </c>
       <c r="L95" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M95" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N95" t="n">
         <v>1.7</v>
@@ -11956,10 +11956,10 @@
         <v>2.05</v>
       </c>
       <c r="P95" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R95" t="n">
         <v>3.15</v>
@@ -11968,10 +11968,10 @@
         <v>1.31</v>
       </c>
       <c r="T95" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U95" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="V95" t="n">
         <v>12</v>
@@ -12001,13 +12001,13 @@
         <v>101</v>
       </c>
       <c r="AE95" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF95" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AG95" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AH95" t="n">
         <v>101</v>
@@ -12016,7 +12016,7 @@
         <v>600</v>
       </c>
       <c r="AJ95" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96">
@@ -12051,94 +12051,94 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="H96" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J96" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="K96" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P96" t="n">
         <v>1.5</v>
       </c>
-      <c r="M96" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P96" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q96" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="R96" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S96" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T96" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U96" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>22</v>
+      </c>
+      <c r="X96" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z96" t="n">
         <v>6.4</v>
       </c>
-      <c r="U96" t="n">
-        <v>12</v>
-      </c>
-      <c r="V96" t="n">
-        <v>10</v>
-      </c>
-      <c r="W96" t="n">
-        <v>32</v>
-      </c>
-      <c r="X96" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AA96" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB96" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC96" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AD96" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AE96" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI96" t="n">
         <v>32</v>
       </c>
       <c r="AJ96" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
@@ -12176,7 +12176,7 @@
         <v>2.2</v>
       </c>
       <c r="H97" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I97" t="n">
         <v>3.35</v>
@@ -12306,7 +12306,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M98" t="n">
         <v>3.45</v>
@@ -12324,10 +12324,10 @@
         <v>2.5</v>
       </c>
       <c r="R98" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S98" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T98" t="n">
         <v>7.3</v>
@@ -12680,7 +12680,7 @@
         <v>2.15</v>
       </c>
       <c r="T101" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U101" t="n">
         <v>10.75</v>
@@ -12698,7 +12698,7 @@
         <v>22</v>
       </c>
       <c r="Z101" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA101" t="n">
         <v>6.9</v>
@@ -12775,13 +12775,13 @@
         <v>1.04</v>
       </c>
       <c r="K102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L102" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M102" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N102" t="n">
         <v>1.7</v>
@@ -12885,13 +12885,13 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.5</v>
       </c>
-      <c r="H103" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J103" t="n">
         <v>1.06</v>
@@ -12927,7 +12927,7 @@
         <v>10</v>
       </c>
       <c r="U103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V103" t="n">
         <v>13</v>
@@ -12945,7 +12945,7 @@
         <v>9.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB103" t="n">
         <v>15</v>
@@ -12954,13 +12954,13 @@
         <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE103" t="n">
         <v>7</v>
       </c>
       <c r="AF103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG103" t="n">
         <v>9</v>
@@ -13129,19 +13129,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>2.9</v>
       </c>
       <c r="I105" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J105" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L105" t="n">
         <v>1.44</v>
@@ -13168,25 +13168,25 @@
         <v>1.75</v>
       </c>
       <c r="T105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W105" t="n">
+        <v>34</v>
+      </c>
+      <c r="X105" t="n">
         <v>29</v>
-      </c>
-      <c r="X105" t="n">
-        <v>26</v>
       </c>
       <c r="Y105" t="n">
         <v>41</v>
       </c>
       <c r="Z105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA105" t="n">
         <v>5.5</v>
@@ -13201,16 +13201,16 @@
         <v>451</v>
       </c>
       <c r="AE105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI105" t="n">
         <v>23</v>
@@ -13251,13 +13251,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J106" t="n">
         <v>1.07</v>
@@ -13272,16 +13272,16 @@
         <v>3</v>
       </c>
       <c r="N106" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O106" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P106" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>8</v>
       </c>
       <c r="V106" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W106" t="n">
         <v>15</v>
@@ -13305,10 +13305,10 @@
         <v>17</v>
       </c>
       <c r="Y106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z106" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA106" t="n">
         <v>6.5</v>
@@ -13317,16 +13317,16 @@
         <v>17</v>
       </c>
       <c r="AC106" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD106" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE106" t="n">
         <v>11</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG106" t="n">
         <v>15</v>
@@ -13382,10 +13382,10 @@
         <v>5.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K107" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L107" t="n">
         <v>1.29</v>
@@ -13394,10 +13394,10 @@
         <v>3.5</v>
       </c>
       <c r="N107" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O107" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P107" t="n">
         <v>1.4</v>
@@ -13498,10 +13498,10 @@
         <v>1.25</v>
       </c>
       <c r="H108" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J108" t="n">
         <v>1.03</v>
@@ -13516,16 +13516,16 @@
         <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O108" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R108" t="n">
         <v>2.25</v>
@@ -13534,13 +13534,13 @@
         <v>1.57</v>
       </c>
       <c r="T108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U108" t="n">
         <v>5.5</v>
       </c>
       <c r="V108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W108" t="n">
         <v>7</v>
@@ -13558,7 +13558,7 @@
         <v>11</v>
       </c>
       <c r="AB108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC108" t="n">
         <v>81</v>
@@ -13617,19 +13617,19 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H109" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J109" t="n">
         <v>1.08</v>
       </c>
       <c r="K109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L109" t="n">
         <v>1.4</v>
@@ -13680,7 +13680,7 @@
         <v>6</v>
       </c>
       <c r="AB109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
         <v>51</v>
@@ -13689,7 +13689,7 @@
         <v>351</v>
       </c>
       <c r="AE109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF109" t="n">
         <v>17</v>
@@ -13992,10 +13992,10 @@
         <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.5</v>
@@ -14022,7 +14022,7 @@
         <v>1.57</v>
       </c>
       <c r="T112" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U112" t="n">
         <v>7</v>
@@ -14227,46 +14227,46 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I114" t="n">
         <v>3.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K114" t="n">
+        <v>13</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T114" t="n">
         <v>11</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M114" t="n">
-        <v>4</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O114" t="n">
-        <v>2</v>
-      </c>
-      <c r="P114" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>3</v>
-      </c>
-      <c r="R114" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S114" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T114" t="n">
-        <v>9.5</v>
       </c>
       <c r="U114" t="n">
         <v>12</v>
@@ -14281,28 +14281,28 @@
         <v>17</v>
       </c>
       <c r="Y114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB114" t="n">
         <v>11</v>
       </c>
-      <c r="AA114" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>12</v>
-      </c>
       <c r="AC114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD114" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF114" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG114" t="n">
         <v>12</v>
@@ -14370,10 +14370,10 @@
         <v>4.33</v>
       </c>
       <c r="N115" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O115" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P115" t="n">
         <v>1.3</v>
@@ -14474,16 +14474,16 @@
         <v>3.2</v>
       </c>
       <c r="H116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J116" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K116" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L116" t="n">
         <v>1.2</v>
@@ -14492,10 +14492,10 @@
         <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O116" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P116" t="n">
         <v>1.33</v>
@@ -14549,13 +14549,13 @@
         <v>12</v>
       </c>
       <c r="AG116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ116" t="n">
         <v>23</v>
@@ -14593,19 +14593,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J117" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L117" t="n">
         <v>1.36</v>
@@ -14632,19 +14632,19 @@
         <v>1.73</v>
       </c>
       <c r="T117" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V117" t="n">
         <v>9</v>
       </c>
       <c r="W117" t="n">
+        <v>13</v>
+      </c>
+      <c r="X117" t="n">
         <v>15</v>
-      </c>
-      <c r="X117" t="n">
-        <v>17</v>
       </c>
       <c r="Y117" t="n">
         <v>34</v>
@@ -14653,34 +14653,34 @@
         <v>8</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC117" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD117" t="n">
         <v>1000</v>
       </c>
       <c r="AE117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF117" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI117" t="n">
         <v>41</v>
       </c>
       <c r="AJ117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
@@ -14715,19 +14715,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>1.08</v>
       </c>
       <c r="K118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L118" t="n">
         <v>1.44</v>
@@ -14742,16 +14742,16 @@
         <v>1.57</v>
       </c>
       <c r="P118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R118" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S118" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T118" t="n">
         <v>6.5</v>
@@ -14772,19 +14772,19 @@
         <v>41</v>
       </c>
       <c r="Z118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA118" t="n">
         <v>6</v>
       </c>
       <c r="AB118" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC118" t="n">
         <v>67</v>
       </c>
       <c r="AD118" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE118" t="n">
         <v>7.5</v>
@@ -14837,13 +14837,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I119" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
@@ -14858,10 +14858,10 @@
         <v>4.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -14879,19 +14879,19 @@
         <v>11</v>
       </c>
       <c r="U119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X119" t="n">
         <v>17</v>
       </c>
       <c r="Y119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z119" t="n">
         <v>15</v>
@@ -14909,7 +14909,7 @@
         <v>101</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
         <v>17</v>
@@ -14924,7 +14924,7 @@
         <v>21</v>
       </c>
       <c r="AJ119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
@@ -14959,19 +14959,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I120" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L120" t="n">
         <v>1.4</v>
@@ -14980,10 +14980,10 @@
         <v>2.75</v>
       </c>
       <c r="N120" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O120" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P120" t="n">
         <v>1.5</v>
@@ -14992,37 +14992,37 @@
         <v>2.5</v>
       </c>
       <c r="R120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S120" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T120" t="n">
         <v>6</v>
       </c>
       <c r="U120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V120" t="n">
         <v>9.5</v>
       </c>
       <c r="W120" t="n">
+        <v>15</v>
+      </c>
+      <c r="X120" t="n">
         <v>17</v>
-      </c>
-      <c r="X120" t="n">
-        <v>19</v>
       </c>
       <c r="Y120" t="n">
         <v>34</v>
       </c>
       <c r="Z120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC120" t="n">
         <v>67</v>
@@ -15034,7 +15034,7 @@
         <v>10</v>
       </c>
       <c r="AF120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG120" t="n">
         <v>15</v>
@@ -15212,16 +15212,16 @@
         <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M122" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N122" t="n">
         <v>2.05</v>
@@ -15290,7 +15290,7 @@
         <v>41</v>
       </c>
       <c r="AJ122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -15331,7 +15331,7 @@
         <v>5.5</v>
       </c>
       <c r="I123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J123" t="n">
         <v>1.02</v>
@@ -15346,7 +15346,7 @@
         <v>5</v>
       </c>
       <c r="N123" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O123" t="n">
         <v>2.4</v>
@@ -15364,7 +15364,7 @@
         <v>1.91</v>
       </c>
       <c r="T123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U123" t="n">
         <v>7</v>
@@ -16179,19 +16179,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H130" t="n">
         <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J130" t="n">
         <v>1.04</v>
       </c>
       <c r="K130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L130" t="n">
         <v>1.22</v>
@@ -16212,25 +16212,25 @@
         <v>3</v>
       </c>
       <c r="R130" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
         <v>13</v>
       </c>
       <c r="U130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W130" t="n">
         <v>41</v>
       </c>
       <c r="X130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y130" t="n">
         <v>34</v>
@@ -16254,7 +16254,7 @@
         <v>8</v>
       </c>
       <c r="AF130" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG130" t="n">
         <v>8.5</v>
@@ -16263,7 +16263,7 @@
         <v>15</v>
       </c>
       <c r="AI130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ130" t="n">
         <v>23</v>
@@ -16665,7 +16665,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J134" t="n">
         <v>1.05</v>
@@ -16734,7 +16734,7 @@
         <v>6.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG134" t="n">
         <v>8.5</v>
@@ -16903,13 +16903,13 @@
         </is>
       </c>
       <c r="G136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" t="n">
         <v>2.72</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.6</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16936,55 +16936,55 @@
         <v>2.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S136" t="n">
         <v>1.75</v>
       </c>
       <c r="T136" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U136" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V136" t="n">
+        <v>10</v>
+      </c>
+      <c r="W136" t="n">
+        <v>29</v>
+      </c>
+      <c r="X136" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z136" t="n">
         <v>7.4</v>
       </c>
-      <c r="U136" t="n">
-        <v>13</v>
-      </c>
-      <c r="V136" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W136" t="n">
-        <v>32</v>
-      </c>
-      <c r="X136" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AA136" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD136" t="n">
         <v>800</v>
       </c>
       <c r="AE136" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH136" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI136" t="n">
         <v>25</v>
@@ -17025,21 +17025,21 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M137" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N137" t="n">
         <v>1.93</v>
@@ -17051,64 +17051,64 @@
         <v>1.44</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R137" t="n">
         <v>1.7</v>
       </c>
       <c r="S137" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T137" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U137" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V137" t="n">
         <v>9.25</v>
       </c>
       <c r="W137" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X137" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z137" t="n">
         <v>8.75</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB137" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD137" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI137" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ137" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.63</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -1142,16 +1142,16 @@
         <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
         <v>2.5</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1330,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,25 +1377,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.5</v>
@@ -1419,13 +1419,13 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1449,10 +1449,10 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1642,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1987,13 +1987,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2002,34 +2002,34 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.67</v>
       </c>
-      <c r="O13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2041,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>15</v>
@@ -2053,10 +2053,10 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2404,7 +2404,7 @@
         <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2425,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2440,7 +2440,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -2624,10 +2624,10 @@
         <v>1.67</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
         <v>1.91</v>
@@ -2639,22 +2639,22 @@
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2669,10 +2669,10 @@
         <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2776,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2883,13 +2883,13 @@
         <v>4.75</v>
       </c>
       <c r="U20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -2969,13 +2969,13 @@
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
@@ -3817,13 +3817,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.11</v>
@@ -3850,25 +3850,25 @@
         <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
@@ -3883,25 +3883,25 @@
         <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="n">
         <v>501</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG28" t="n">
         <v>13</v>
       </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
       <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
         <v>34</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>29</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -4064,16 +4064,16 @@
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4186,16 +4186,16 @@
         <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4240,28 +4240,28 @@
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4377,19 +4377,19 @@
         <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
         <v>81</v>
       </c>
       <c r="AI32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ32" t="n">
         <v>41</v>
@@ -4433,13 +4433,13 @@
         <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
         <v>1.25</v>
@@ -4448,7 +4448,7 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
@@ -4466,10 +4466,10 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
@@ -4505,7 +4505,7 @@
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -4514,7 +4514,7 @@
         <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4704,16 +4704,16 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
         <v>7.5</v>
       </c>
       <c r="U35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
@@ -4740,7 +4740,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE35" t="n">
         <v>9.5</v>
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4802,16 +4802,16 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N36" t="n">
         <v>2.2</v>
@@ -4915,25 +4915,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
       </c>
       <c r="K37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>2.3</v>
@@ -4948,25 +4948,25 @@
         <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W37" t="n">
         <v>51</v>
       </c>
       <c r="X37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y37" t="n">
         <v>51</v>
@@ -4975,13 +4975,13 @@
         <v>7.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="n">
         <v>501</v>
@@ -4990,16 +4990,16 @@
         <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
         <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ37" t="n">
         <v>34</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -5362,7 +5362,7 @@
         <v>10</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
         <v>21</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>4.75</v>
@@ -5415,7 +5415,7 @@
         <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41" t="n">
         <v>1.14</v>
@@ -5442,16 +5442,16 @@
         <v>1.95</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U41" t="n">
         <v>7.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
@@ -5466,7 +5466,7 @@
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5475,19 +5475,19 @@
         <v>201</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
@@ -5531,13 +5531,13 @@
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.3</v>
@@ -5549,7 +5549,7 @@
         <v>2.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5564,10 +5564,10 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V42" t="n">
         <v>10</v>
@@ -5582,13 +5582,13 @@
         <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5609,10 +5609,10 @@
         <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5668,10 +5668,10 @@
         <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -5695,7 +5695,7 @@
         <v>8.5</v>
       </c>
       <c r="W43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X43" t="n">
         <v>13</v>
@@ -5704,13 +5704,13 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC43" t="n">
         <v>67</v>
@@ -5731,7 +5731,7 @@
         <v>67</v>
       </c>
       <c r="AI43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
@@ -5912,10 +5912,10 @@
         <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -6135,13 +6135,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>1.06</v>
@@ -6156,10 +6156,10 @@
         <v>3.25</v>
       </c>
       <c r="N47" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6177,7 +6177,7 @@
         <v>7.5</v>
       </c>
       <c r="U47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
         <v>9.5</v>
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6278,10 +6278,10 @@
         <v>3.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O48" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -6296,7 +6296,7 @@
         <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U48" t="n">
         <v>12</v>
@@ -6311,7 +6311,7 @@
         <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
         <v>11</v>
@@ -6329,7 +6329,7 @@
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
@@ -6516,16 +6516,16 @@
         <v>9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6758,10 +6758,10 @@
         <v>10</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
         <v>2.1</v>
@@ -7130,10 +7130,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7231,31 +7231,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J56" t="n">
         <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P56" t="n">
         <v>1.5</v>
@@ -7264,10 +7264,10 @@
         <v>2.5</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S56" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T56" t="n">
         <v>6.5</v>
@@ -7279,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -7294,28 +7294,28 @@
         <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF56" t="n">
         <v>17</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH56" t="n">
         <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
         <v>41</v>
@@ -7353,19 +7353,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -7374,10 +7374,10 @@
         <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P57" t="n">
         <v>1.44</v>
@@ -7401,7 +7401,7 @@
         <v>10</v>
       </c>
       <c r="W57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X57" t="n">
         <v>21</v>
@@ -7413,7 +7413,7 @@
         <v>9</v>
       </c>
       <c r="AA57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB57" t="n">
         <v>15</v>
@@ -7425,7 +7425,7 @@
         <v>301</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>13</v>
@@ -7478,16 +7478,16 @@
         <v>1.83</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
         <v>1.25</v>
@@ -7496,10 +7496,10 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -7508,16 +7508,16 @@
         <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
         <v>8</v>
       </c>
       <c r="U58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
@@ -8203,21 +8203,21 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H64" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N64" t="n">
         <v>1.78</v>
@@ -8237,28 +8237,28 @@
         <v>8.25</v>
       </c>
       <c r="U64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V64" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X64" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y64" t="n">
         <v>24</v>
       </c>
       <c r="Z64" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC64" t="n">
         <v>40</v>
@@ -8273,7 +8273,7 @@
         <v>9.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH64" t="n">
         <v>17.5</v>
@@ -8282,7 +8282,7 @@
         <v>14</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="65">
@@ -8345,13 +8345,13 @@
         <v>1.51</v>
       </c>
       <c r="S65" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U65" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V65" t="n">
         <v>8.75</v>
@@ -8360,16 +8360,16 @@
         <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="n">
         <v>12.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
         <v>9.5</v>
@@ -8384,7 +8384,7 @@
         <v>8.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG65" t="n">
         <v>7.5</v>
@@ -8393,7 +8393,7 @@
         <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ65" t="n">
         <v>17</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J67" t="n">
         <v>1.06</v>
@@ -8595,7 +8595,7 @@
         <v>11</v>
       </c>
       <c r="U67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V67" t="n">
         <v>13</v>
@@ -8613,10 +8613,10 @@
         <v>9.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC67" t="n">
         <v>51</v>
@@ -8631,13 +8631,13 @@
         <v>8.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH67" t="n">
         <v>15</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ67" t="n">
         <v>29</v>
@@ -8797,19 +8797,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
@@ -8848,7 +8848,7 @@
         <v>34</v>
       </c>
       <c r="X69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y69" t="n">
         <v>41</v>
@@ -8881,7 +8881,7 @@
         <v>21</v>
       </c>
       <c r="AI69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ69" t="n">
         <v>34</v>
@@ -9041,13 +9041,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H71" t="n">
         <v>3.25</v>
       </c>
       <c r="I71" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -9092,7 +9092,7 @@
         <v>29</v>
       </c>
       <c r="X71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
         <v>29</v>
@@ -9119,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="AG71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH71" t="n">
         <v>23</v>
@@ -9128,7 +9128,7 @@
         <v>19</v>
       </c>
       <c r="AJ71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -9774,10 +9774,10 @@
         <v>2.95</v>
       </c>
       <c r="N77" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O77" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P77" t="n">
         <v>1.42</v>
@@ -9795,7 +9795,7 @@
         <v>6</v>
       </c>
       <c r="U77" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V77" t="n">
         <v>8.25</v>
@@ -9996,7 +9996,7 @@
         <v>2.87</v>
       </c>
       <c r="H79" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I79" t="n">
         <v>2.82</v>
@@ -10004,10 +10004,10 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M79" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N79" t="n">
         <v>2.15</v>
@@ -10022,16 +10022,16 @@
         <v>2.15</v>
       </c>
       <c r="R79" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T79" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V79" t="n">
         <v>10</v>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
       <c r="Z79" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA79" t="n">
         <v>5.1</v>
@@ -10073,7 +10073,7 @@
         <v>37</v>
       </c>
       <c r="AI79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ79" t="n">
         <v>35</v>
@@ -10111,13 +10111,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I80" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10128,43 +10128,43 @@
         <v>3.1</v>
       </c>
       <c r="N80" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O80" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P80" t="n">
         <v>1.42</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R80" t="n">
         <v>1.6</v>
       </c>
       <c r="S80" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T80" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W80" t="n">
         <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z80" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA80" t="n">
         <v>5.8</v>
@@ -10173,16 +10173,16 @@
         <v>11.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD80" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE80" t="n">
         <v>11.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG80" t="n">
         <v>12</v>
@@ -10191,10 +10191,10 @@
         <v>65</v>
       </c>
       <c r="AI80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -10229,90 +10229,90 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M81" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O81" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P81" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R81" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S81" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T81" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="U81" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="V81" t="n">
         <v>8.25</v>
       </c>
       <c r="W81" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y81" t="n">
         <v>27</v>
       </c>
       <c r="Z81" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB81" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD81" t="n">
         <v>600</v>
       </c>
       <c r="AE81" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG81" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ81" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H82" t="n">
         <v>3.05</v>
       </c>
       <c r="I82" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -10376,13 +10376,13 @@
         <v>2.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S82" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T82" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="U82" t="n">
         <v>10</v>
@@ -10391,22 +10391,22 @@
         <v>7.9</v>
       </c>
       <c r="W82" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X82" t="n">
         <v>14.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z82" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA82" t="n">
         <v>6.1</v>
       </c>
       <c r="AB82" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC82" t="n">
         <v>45</v>
@@ -10415,7 +10415,7 @@
         <v>300</v>
       </c>
       <c r="AE82" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF82" t="n">
         <v>27</v>
@@ -10427,7 +10427,7 @@
         <v>75</v>
       </c>
       <c r="AI82" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ82" t="n">
         <v>35</v>
@@ -10465,19 +10465,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H83" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K83" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.29</v>
@@ -10498,16 +10498,16 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
@@ -10531,13 +10531,13 @@
         <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD83" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF83" t="n">
         <v>34</v>
@@ -10546,7 +10546,7 @@
         <v>21</v>
       </c>
       <c r="AH83" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI83" t="n">
         <v>51</v>
@@ -10587,13 +10587,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H84" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J84" t="n">
         <v>1.11</v>
@@ -10620,19 +10620,19 @@
         <v>2.2</v>
       </c>
       <c r="R84" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S84" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T84" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U84" t="n">
         <v>12</v>
       </c>
       <c r="V84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W84" t="n">
         <v>29</v>
@@ -10644,10 +10644,10 @@
         <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB84" t="n">
         <v>21</v>
@@ -10840,10 +10840,10 @@
         <v>3.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L86" t="n">
         <v>1.5</v>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K89" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L89" t="n">
         <v>1.38</v>
@@ -11230,61 +11230,61 @@
         <v>2.42</v>
       </c>
       <c r="R89" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S89" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T89" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V89" t="n">
         <v>9.25</v>
       </c>
       <c r="W89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y89" t="n">
         <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA89" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB89" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC89" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD89" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE89" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF89" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG89" t="n">
         <v>11</v>
       </c>
       <c r="AH89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI89" t="n">
         <v>29</v>
       </c>
       <c r="AJ89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
@@ -11319,94 +11319,94 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K90" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="L90" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M90" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P90" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="R90" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S90" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T90" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="U90" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="V90" t="n">
         <v>9.25</v>
       </c>
       <c r="W90" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X90" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y90" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="n">
         <v>32</v>
       </c>
-      <c r="Z90" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ90" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
@@ -11569,10 +11569,10 @@
         <v>2.95</v>
       </c>
       <c r="I92" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K92" t="n">
         <v>5.7</v>
@@ -11581,13 +11581,13 @@
         <v>1.47</v>
       </c>
       <c r="M92" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N92" t="n">
         <v>2.35</v>
       </c>
       <c r="O92" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P92" t="n">
         <v>1.57</v>
@@ -11602,10 +11602,10 @@
         <v>1.7</v>
       </c>
       <c r="T92" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U92" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V92" t="n">
         <v>9</v>
@@ -11614,10 +11614,10 @@
         <v>19.5</v>
       </c>
       <c r="X92" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y92" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z92" t="n">
         <v>5.7</v>
@@ -11635,10 +11635,10 @@
         <v>900</v>
       </c>
       <c r="AE92" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG92" t="n">
         <v>13</v>
@@ -11840,19 +11840,19 @@
         <v>2.25</v>
       </c>
       <c r="R94" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T94" t="n">
         <v>6.7</v>
       </c>
       <c r="U94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V94" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
         <v>32</v>
@@ -11873,19 +11873,19 @@
         <v>18</v>
       </c>
       <c r="AC94" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD94" t="n">
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF94" t="n">
         <v>11.25</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH94" t="n">
         <v>28</v>
@@ -11929,13 +11929,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H95" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J95" t="n">
         <v>1.04</v>
@@ -11944,40 +11944,40 @@
         <v>8.25</v>
       </c>
       <c r="L95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M95" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O95" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="P95" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R95" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="S95" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T95" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="U95" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="V95" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X95" t="n">
         <v>14</v>
@@ -11989,10 +11989,10 @@
         <v>8.25</v>
       </c>
       <c r="AA95" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC95" t="n">
         <v>500</v>
@@ -12001,22 +12001,22 @@
         <v>101</v>
       </c>
       <c r="AE95" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF95" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AG95" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH95" t="n">
         <v>101</v>
       </c>
       <c r="AI95" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ95" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96">
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="H98" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I98" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -12333,28 +12333,28 @@
         <v>7.3</v>
       </c>
       <c r="U98" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V98" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="W98" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z98" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA98" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB98" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC98" t="n">
         <v>40</v>
@@ -12363,22 +12363,22 @@
         <v>250</v>
       </c>
       <c r="AE98" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF98" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI98" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ98" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -12413,13 +12413,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H99" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I99" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12438,22 +12438,22 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="S99" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="T99" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U99" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="V99" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W99" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X99" t="n">
         <v>9</v>
@@ -12465,10 +12465,10 @@
         <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC99" t="n">
         <v>110</v>
@@ -12477,22 +12477,22 @@
         <v>500</v>
       </c>
       <c r="AE99" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AF99" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AI99" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AJ99" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
@@ -12763,13 +12763,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J102" t="n">
         <v>1.04</v>
@@ -12778,22 +12778,22 @@
         <v>13</v>
       </c>
       <c r="L102" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M102" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O102" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P102" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q102" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R102" t="n">
         <v>1.83</v>
@@ -12802,7 +12802,7 @@
         <v>1.83</v>
       </c>
       <c r="T102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U102" t="n">
         <v>7.5</v>
@@ -12811,19 +12811,19 @@
         <v>8.5</v>
       </c>
       <c r="W102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y102" t="n">
         <v>23</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB102" t="n">
         <v>17</v>
@@ -12832,19 +12832,19 @@
         <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="n">
         <v>51</v>
@@ -12885,13 +12885,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
         <v>1.06</v>
@@ -12927,7 +12927,7 @@
         <v>10</v>
       </c>
       <c r="U103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V103" t="n">
         <v>13</v>
@@ -12945,7 +12945,7 @@
         <v>9.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB103" t="n">
         <v>15</v>
@@ -12954,13 +12954,13 @@
         <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE103" t="n">
         <v>7</v>
       </c>
       <c r="AF103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG103" t="n">
         <v>9</v>
@@ -13129,19 +13129,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H105" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J105" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L105" t="n">
         <v>1.44</v>
@@ -13186,7 +13186,7 @@
         <v>41</v>
       </c>
       <c r="Z105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA105" t="n">
         <v>5.5</v>
@@ -13204,7 +13204,7 @@
         <v>6.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG105" t="n">
         <v>10</v>
@@ -13251,13 +13251,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J106" t="n">
         <v>1.07</v>
@@ -13293,7 +13293,7 @@
         <v>6</v>
       </c>
       <c r="U106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V106" t="n">
         <v>9</v>
@@ -13326,7 +13326,7 @@
         <v>11</v>
       </c>
       <c r="AF106" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG106" t="n">
         <v>15</v>
@@ -13338,7 +13338,7 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
@@ -13373,19 +13373,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>4.75</v>
       </c>
       <c r="I107" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K107" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L107" t="n">
         <v>1.29</v>
@@ -13400,10 +13400,10 @@
         <v>1.95</v>
       </c>
       <c r="P107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R107" t="n">
         <v>2.05</v>
@@ -13442,7 +13442,7 @@
         <v>67</v>
       </c>
       <c r="AD107" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE107" t="n">
         <v>13</v>
@@ -13451,13 +13451,13 @@
         <v>29</v>
       </c>
       <c r="AG107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH107" t="n">
         <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="n">
         <v>51</v>
@@ -13495,10 +13495,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H108" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
         <v>13</v>
@@ -13537,7 +13537,7 @@
         <v>7</v>
       </c>
       <c r="U108" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V108" t="n">
         <v>10</v>
@@ -13573,7 +13573,7 @@
         <v>51</v>
       </c>
       <c r="AG108" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH108" t="n">
         <v>151</v>
@@ -13629,7 +13629,7 @@
         <v>1.08</v>
       </c>
       <c r="K109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L109" t="n">
         <v>1.4</v>
@@ -13638,10 +13638,10 @@
         <v>2.75</v>
       </c>
       <c r="N109" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O109" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P109" t="n">
         <v>1.5</v>
@@ -13870,22 +13870,22 @@
         <v>2.63</v>
       </c>
       <c r="J111" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M111" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O111" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13986,34 +13986,34 @@
         <v>1.75</v>
       </c>
       <c r="H112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J112" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M112" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N112" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O112" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R112" t="n">
         <v>2.25</v>
@@ -14028,19 +14028,19 @@
         <v>7</v>
       </c>
       <c r="V112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W112" t="n">
         <v>13</v>
       </c>
       <c r="X112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y112" t="n">
         <v>41</v>
       </c>
       <c r="Z112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA112" t="n">
         <v>6.5</v>
@@ -14061,13 +14061,13 @@
         <v>23</v>
       </c>
       <c r="AG112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH112" t="n">
         <v>51</v>
       </c>
       <c r="AI112" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ112" t="n">
         <v>51</v>
@@ -14105,13 +14105,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J113" t="n">
         <v>1.07</v>
@@ -14144,19 +14144,19 @@
         <v>1.83</v>
       </c>
       <c r="T113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y113" t="n">
         <v>34</v>
@@ -14174,16 +14174,16 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE113" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH113" t="n">
         <v>23</v>
@@ -14192,7 +14192,7 @@
         <v>21</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
@@ -14236,10 +14236,10 @@
         <v>3.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
         <v>1.2</v>
@@ -14248,10 +14248,10 @@
         <v>4.33</v>
       </c>
       <c r="N114" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O114" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14480,10 +14480,10 @@
         <v>2.05</v>
       </c>
       <c r="J116" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K116" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L116" t="n">
         <v>1.2</v>
@@ -14617,7 +14617,7 @@
         <v>2.1</v>
       </c>
       <c r="O117" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P117" t="n">
         <v>1.44</v>
@@ -14837,13 +14837,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>3.4</v>
       </c>
       <c r="I119" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
@@ -14852,16 +14852,16 @@
         <v>15</v>
       </c>
       <c r="L119" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O119" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -14870,13 +14870,13 @@
         <v>3.4</v>
       </c>
       <c r="R119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S119" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U119" t="n">
         <v>15</v>
@@ -14885,10 +14885,10 @@
         <v>10</v>
       </c>
       <c r="W119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y119" t="n">
         <v>23</v>
@@ -14912,16 +14912,16 @@
         <v>12</v>
       </c>
       <c r="AF119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ119" t="n">
         <v>23</v>
@@ -15700,34 +15700,34 @@
         <v>4.1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L126" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M126" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="N126" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O126" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P126" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q126" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S126" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="T126" t="n">
         <v>9.5</v>
@@ -15736,10 +15736,10 @@
         <v>10</v>
       </c>
       <c r="V126" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W126" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X126" t="n">
         <v>12.5</v>
@@ -15748,25 +15748,25 @@
         <v>19</v>
       </c>
       <c r="Z126" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA126" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB126" t="n">
         <v>12.5</v>
       </c>
       <c r="AC126" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD126" t="n">
         <v>250</v>
       </c>
       <c r="AE126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF126" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG126" t="n">
         <v>13.5</v>
@@ -15775,10 +15775,10 @@
         <v>65</v>
       </c>
       <c r="AI126" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ126" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
@@ -16060,16 +16060,16 @@
         <v>1.27</v>
       </c>
       <c r="H129" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I129" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J129" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K129" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L129" t="n">
         <v>1.17</v>
@@ -16090,16 +16090,16 @@
         <v>3.5</v>
       </c>
       <c r="R129" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S129" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T129" t="n">
         <v>8</v>
       </c>
       <c r="U129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
@@ -16114,34 +16114,34 @@
         <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC129" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI129" t="n">
         <v>67</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>51</v>
       </c>
       <c r="AJ129" t="n">
         <v>51</v>
@@ -16191,7 +16191,7 @@
         <v>1.04</v>
       </c>
       <c r="K130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L130" t="n">
         <v>1.22</v>
@@ -16200,10 +16200,10 @@
         <v>4</v>
       </c>
       <c r="N130" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O130" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
         <v>1.36</v>
@@ -16301,13 +16301,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>3.05</v>
       </c>
       <c r="I131" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -16324,10 +16324,10 @@
         <v>1.5</v>
       </c>
       <c r="P131" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R131" t="n">
         <v>1.98</v>
@@ -16336,31 +16336,31 @@
         <v>1.65</v>
       </c>
       <c r="T131" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="U131" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="V131" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W131" t="n">
+        <v>65</v>
+      </c>
+      <c r="X131" t="n">
         <v>45</v>
       </c>
-      <c r="X131" t="n">
-        <v>35</v>
-      </c>
       <c r="Y131" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z131" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA131" t="n">
         <v>6</v>
       </c>
       <c r="AB131" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC131" t="n">
         <v>110</v>
@@ -16369,22 +16369,22 @@
         <v>800</v>
       </c>
       <c r="AE131" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AF131" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH131" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI131" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ131" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
@@ -16665,7 +16665,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J134" t="n">
         <v>1.05</v>
@@ -16734,7 +16734,7 @@
         <v>6.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG134" t="n">
         <v>8.5</v>
@@ -16903,13 +16903,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I136" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16918,64 +16918,64 @@
         <v>6.2</v>
       </c>
       <c r="L136" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M136" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="N136" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O136" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P136" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R136" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S136" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T136" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="U136" t="n">
         <v>11.75</v>
       </c>
       <c r="V136" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W136" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X136" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y136" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z136" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB136" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD136" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE136" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF136" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -680,10 +680,10 @@
         <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -778,10 +778,10 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -790,10 +790,10 @@
         <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -805,7 +805,7 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>6.5</v>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1044,13 +1044,13 @@
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
         <v>7.5</v>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
@@ -1142,22 +1142,22 @@
         <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
         <v>1.53</v>
@@ -1255,49 +1255,49 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
         <v>12</v>
@@ -1312,16 +1312,16 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="n">
         <v>501</v>
@@ -1330,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,37 +1377,37 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>2.1</v>
@@ -1416,28 +1416,28 @@
         <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V8" t="n">
         <v>9</v>
       </c>
-      <c r="V8" t="n">
-        <v>10</v>
-      </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1449,16 +1449,16 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
       </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1633,34 +1633,34 @@
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
         <v>12</v>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1678,22 +1678,22 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
@@ -1871,7 +1871,7 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1892,7 +1892,7 @@
         <v>2.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
         <v>3.4</v>
@@ -1934,7 +1934,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -1946,7 +1946,7 @@
         <v>8.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>12</v>
@@ -2008,13 +2008,13 @@
         <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
         <v>3.4</v>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2136,28 +2136,28 @@
         <v>2.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
         <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2184,13 +2184,13 @@
         <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG14" t="n">
         <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2234,46 +2234,46 @@
         <v>2.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
@@ -2288,10 +2288,10 @@
         <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -2309,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -2318,7 +2318,7 @@
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
@@ -2380,7 +2380,7 @@
         <v>2.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
         <v>3.25</v>
@@ -2395,16 +2395,16 @@
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
         <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2416,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>41</v>
@@ -2425,7 +2425,7 @@
         <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2437,10 +2437,10 @@
         <v>41</v>
       </c>
       <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2502,7 +2502,7 @@
         <v>2.1</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
         <v>3.25</v>
@@ -2606,10 +2606,10 @@
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2618,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
         <v>1.5</v>
@@ -2654,7 +2654,7 @@
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2722,10 +2722,10 @@
         <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2734,16 +2734,16 @@
         <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2752,13 +2752,13 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
         <v>13</v>
@@ -2776,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -2966,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W21" t="n">
         <v>151</v>
@@ -3020,34 +3020,34 @@
         <v>81</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
         <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3085,22 +3085,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>3.75</v>
@@ -3124,25 +3124,25 @@
         <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -3160,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3207,94 +3207,94 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N23" t="n">
         <v>1.91</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.07</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="V23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
         <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
         <v>60</v>
       </c>
       <c r="AI23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3344,10 +3344,10 @@
         <v>6.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N24" t="n">
         <v>2.2</v>
@@ -3368,10 +3368,10 @@
         <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V24" t="n">
         <v>9.5</v>
@@ -3380,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
@@ -3401,10 +3401,10 @@
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3413,10 +3413,10 @@
         <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3490,10 +3490,10 @@
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V25" t="n">
         <v>9.5</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z25" t="n">
         <v>6.4</v>
@@ -3523,7 +3523,7 @@
         <v>1250</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF25" t="n">
         <v>20</v>
@@ -3538,7 +3538,7 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3817,55 +3817,55 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M28" t="n">
         <v>2.3</v>
       </c>
-      <c r="H28" t="n">
+      <c r="N28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.63</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S28" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.62</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
         <v>23</v>
@@ -3874,13 +3874,13 @@
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
         <v>81</v>
@@ -3889,7 +3889,7 @@
         <v>501</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>15</v>
@@ -3904,7 +3904,7 @@
         <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -3939,19 +3939,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
         <v>1.5</v>
@@ -3978,16 +3978,16 @@
         <v>1.67</v>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X29" t="n">
         <v>23</v>
@@ -3996,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
@@ -4011,19 +4011,19 @@
         <v>501</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG29" t="n">
         <v>13</v>
       </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.07</v>
@@ -4100,28 +4100,28 @@
         <v>1.83</v>
       </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4139,7 +4139,7 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
@@ -4148,7 +4148,7 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -4186,10 +4186,10 @@
         <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4198,31 +4198,31 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
         <v>11</v>
@@ -4237,10 +4237,10 @@
         <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4252,25 +4252,25 @@
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -4305,46 +4305,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M32" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="P32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>7.5</v>
@@ -4359,13 +4359,13 @@
         <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4374,10 +4374,10 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4746,7 +4746,7 @@
         <v>9.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4805,7 +4805,7 @@
         <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -4915,13 +4915,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
@@ -4948,10 +4948,10 @@
         <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T37" t="n">
         <v>11</v>
@@ -4996,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J38" t="n">
         <v>1.06</v>
@@ -5058,10 +5058,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5070,28 +5070,28 @@
         <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T38" t="n">
         <v>6.5</v>
       </c>
       <c r="U38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
         <v>10</v>
@@ -5100,31 +5100,31 @@
         <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE38" t="n">
         <v>13</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
         <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI38" t="n">
         <v>41</v>
       </c>
       <c r="AJ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
@@ -5162,10 +5162,10 @@
         <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -5174,28 +5174,28 @@
         <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T39" t="n">
         <v>17</v>
@@ -5210,16 +5210,16 @@
         <v>101</v>
       </c>
       <c r="X39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
@@ -5231,22 +5231,22 @@
         <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>6</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH39" t="n">
         <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5281,19 +5281,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
         <v>1.36</v>
@@ -5323,16 +5323,16 @@
         <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
         <v>34</v>
@@ -5356,7 +5356,7 @@
         <v>7.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
         <v>10</v>
@@ -5406,7 +5406,7 @@
         <v>1.3</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>9.5</v>
@@ -5418,16 +5418,16 @@
         <v>17</v>
       </c>
       <c r="L41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O41" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P41" t="n">
         <v>1.25</v>
@@ -5442,16 +5442,16 @@
         <v>1.95</v>
       </c>
       <c r="T41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
         <v>7.5</v>
       </c>
       <c r="V41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
@@ -5460,10 +5460,10 @@
         <v>23</v>
       </c>
       <c r="Z41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -5484,10 +5484,10 @@
         <v>29</v>
       </c>
       <c r="AH41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
@@ -5531,13 +5531,13 @@
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.3</v>
@@ -5546,10 +5546,10 @@
         <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -5668,22 +5668,22 @@
         <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
         <v>6.5</v>
@@ -5695,7 +5695,7 @@
         <v>8.5</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X43" t="n">
         <v>13</v>
@@ -5710,13 +5710,13 @@
         <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE43" t="n">
         <v>15</v>
@@ -5731,7 +5731,7 @@
         <v>67</v>
       </c>
       <c r="AI43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
@@ -5769,19 +5769,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
         <v>1.29</v>
@@ -5790,10 +5790,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5811,13 +5811,13 @@
         <v>7</v>
       </c>
       <c r="U44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -5841,10 +5841,10 @@
         <v>301</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG44" t="n">
         <v>17</v>
@@ -5912,10 +5912,10 @@
         <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -6013,31 +6013,31 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.4</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M46" t="n">
         <v>3.5</v>
       </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
       <c r="N46" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="O46" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -6046,34 +6046,34 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V46" t="n">
         <v>12</v>
       </c>
       <c r="W46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X46" t="n">
         <v>26</v>
       </c>
       <c r="Y46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>13</v>
@@ -6082,10 +6082,10 @@
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
         <v>11</v>
@@ -6097,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="AI46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ46" t="n">
         <v>23</v>
@@ -6135,79 +6135,79 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
         <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="O47" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U47" t="n">
         <v>11</v>
       </c>
       <c r="V47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF47" t="n">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6296,7 +6296,7 @@
         <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U48" t="n">
         <v>12</v>
@@ -6329,7 +6329,7 @@
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
@@ -6341,7 +6341,7 @@
         <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ48" t="n">
         <v>29</v>
@@ -6388,10 +6388,10 @@
         <v>2.05</v>
       </c>
       <c r="J49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.53</v>
@@ -6504,10 +6504,10 @@
         <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
@@ -6522,10 +6522,10 @@
         <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6534,13 +6534,13 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U50" t="n">
         <v>13</v>
@@ -6558,22 +6558,22 @@
         <v>34</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
         <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF50" t="n">
         <v>12</v>
@@ -6588,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -6743,31 +6743,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I52" t="n">
         <v>3.4</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M52" t="n">
         <v>3</v>
       </c>
-      <c r="J52" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P52" t="n">
         <v>1.44</v>
@@ -6782,55 +6782,55 @@
         <v>1.83</v>
       </c>
       <c r="T52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="n">
         <v>29</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
         <v>51</v>
       </c>
       <c r="AD52" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -6987,19 +6987,19 @@
         </is>
       </c>
       <c r="G54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.4</v>
       </c>
-      <c r="H54" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7041,7 +7041,7 @@
         <v>29</v>
       </c>
       <c r="Y54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="n">
         <v>9.5</v>
@@ -7056,19 +7056,19 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG54" t="n">
         <v>9</v>
       </c>
       <c r="AH54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI54" t="n">
         <v>17</v>
@@ -7112,16 +7112,16 @@
         <v>2.63</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.33</v>
@@ -7130,10 +7130,10 @@
         <v>3.25</v>
       </c>
       <c r="N55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7151,7 +7151,7 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V55" t="n">
         <v>10</v>
@@ -7166,10 +7166,10 @@
         <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB55" t="n">
         <v>15</v>
@@ -7193,7 +7193,7 @@
         <v>26</v>
       </c>
       <c r="AI55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7231,10 +7231,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>3.4</v>
@@ -7279,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -7315,7 +7315,7 @@
         <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
         <v>41</v>
@@ -7374,10 +7374,10 @@
         <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P57" t="n">
         <v>1.44</v>
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H59" t="n">
         <v>4.5</v>
@@ -7624,19 +7624,19 @@
         <v>2.3</v>
       </c>
       <c r="P59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U59" t="n">
         <v>8.5</v>
@@ -7654,7 +7654,7 @@
         <v>21</v>
       </c>
       <c r="Z59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
@@ -7666,7 +7666,7 @@
         <v>41</v>
       </c>
       <c r="AD59" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE59" t="n">
         <v>17</v>
@@ -7675,7 +7675,7 @@
         <v>29</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
         <v>51</v>
@@ -7740,10 +7740,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7841,13 +7841,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7889,10 +7889,10 @@
         <v>12</v>
       </c>
       <c r="W61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y61" t="n">
         <v>34</v>
@@ -7904,7 +7904,7 @@
         <v>6.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
         <v>41</v>
@@ -8085,13 +8085,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H63" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -8102,7 +8102,7 @@
         <v>3.4</v>
       </c>
       <c r="N63" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O63" t="n">
         <v>1.78</v>
@@ -8114,10 +8114,10 @@
         <v>2.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S63" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T63" t="n">
         <v>6.9</v>
@@ -8126,16 +8126,16 @@
         <v>9.5</v>
       </c>
       <c r="V63" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="W63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z63" t="n">
         <v>9.75</v>
@@ -8153,22 +8153,22 @@
         <v>250</v>
       </c>
       <c r="AE63" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF63" t="n">
         <v>12.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI63" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -8234,13 +8234,13 @@
         <v>2.09</v>
       </c>
       <c r="T64" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U64" t="n">
         <v>13</v>
       </c>
       <c r="V64" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W64" t="n">
         <v>28</v>
@@ -8267,7 +8267,7 @@
         <v>250</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF64" t="n">
         <v>9.5</v>
@@ -8282,7 +8282,7 @@
         <v>14</v>
       </c>
       <c r="AJ64" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -8348,10 +8348,10 @@
         <v>2.41</v>
       </c>
       <c r="T65" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V65" t="n">
         <v>8.75</v>
@@ -8360,16 +8360,16 @@
         <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y65" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z65" t="n">
         <v>12.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB65" t="n">
         <v>9.5</v>
@@ -8381,10 +8381,10 @@
         <v>150</v>
       </c>
       <c r="AE65" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF65" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG65" t="n">
         <v>7.5</v>
@@ -8393,10 +8393,10 @@
         <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="66">
@@ -8431,46 +8431,46 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H66" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J66" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T66" t="n">
         <v>7.5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T66" t="n">
-        <v>7</v>
       </c>
       <c r="U66" t="n">
         <v>11</v>
@@ -8488,7 +8488,7 @@
         <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA66" t="n">
         <v>6</v>
@@ -8500,10 +8500,10 @@
         <v>51</v>
       </c>
       <c r="AD66" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF66" t="n">
         <v>13</v>
@@ -8515,10 +8515,10 @@
         <v>29</v>
       </c>
       <c r="AI66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -8553,31 +8553,31 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N67" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O67" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8592,19 +8592,19 @@
         <v>1.83</v>
       </c>
       <c r="T67" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V67" t="n">
         <v>15</v>
       </c>
       <c r="W67" t="n">
+        <v>51</v>
+      </c>
+      <c r="X67" t="n">
         <v>41</v>
-      </c>
-      <c r="X67" t="n">
-        <v>34</v>
       </c>
       <c r="Y67" t="n">
         <v>41</v>
@@ -8628,19 +8628,19 @@
         <v>7</v>
       </c>
       <c r="AF67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG67" t="n">
         <v>8.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI67" t="n">
         <v>15</v>
       </c>
       <c r="AJ67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -8684,10 +8684,10 @@
         <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8696,10 +8696,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8729,7 +8729,7 @@
         <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z68" t="n">
         <v>11</v>
@@ -8919,46 +8919,46 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H70" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I70" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L70" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M70" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O70" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P70" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S70" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U70" t="n">
         <v>8</v>
@@ -8967,19 +8967,19 @@
         <v>8.5</v>
       </c>
       <c r="W70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" t="n">
         <v>13</v>
       </c>
       <c r="Y70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB70" t="n">
         <v>15</v>
@@ -8988,16 +8988,16 @@
         <v>51</v>
       </c>
       <c r="AD70" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH70" t="n">
         <v>51</v>
@@ -9041,13 +9041,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -9056,10 +9056,10 @@
         <v>11</v>
       </c>
       <c r="L71" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N71" t="n">
         <v>1.93</v>
@@ -9074,10 +9074,10 @@
         <v>2.75</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S71" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -9092,7 +9092,7 @@
         <v>29</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y71" t="n">
         <v>29</v>
@@ -9113,13 +9113,13 @@
         <v>201</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF71" t="n">
         <v>12</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH71" t="n">
         <v>23</v>
@@ -9128,7 +9128,7 @@
         <v>19</v>
       </c>
       <c r="AJ71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -9163,13 +9163,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J72" t="n">
         <v>1.1</v>
@@ -9208,10 +9208,10 @@
         <v>9</v>
       </c>
       <c r="V72" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W72" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X72" t="n">
         <v>20</v>
@@ -9220,7 +9220,7 @@
         <v>40</v>
       </c>
       <c r="Z72" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
@@ -9235,22 +9235,22 @@
         <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF72" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
         <v>13</v>
       </c>
       <c r="AH72" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI72" t="n">
         <v>40</v>
       </c>
       <c r="AJ72" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
@@ -9285,13 +9285,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="H73" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -9308,58 +9308,58 @@
         <v>1.55</v>
       </c>
       <c r="P73" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T73" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="U73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V73" t="n">
         <v>9</v>
       </c>
       <c r="W73" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB73" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC73" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD73" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE73" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH73" t="n">
         <v>45</v>
@@ -9403,13 +9403,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H74" t="n">
         <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9432,25 +9432,25 @@
         <v>2.47</v>
       </c>
       <c r="R74" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S74" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T74" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V74" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="W74" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X74" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y74" t="n">
         <v>40</v>
@@ -9459,31 +9459,31 @@
         <v>8</v>
       </c>
       <c r="AA74" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB74" t="n">
         <v>15.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE74" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF74" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ74" t="n">
         <v>35</v>
@@ -9521,13 +9521,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="H75" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -9550,25 +9550,25 @@
         <v>2.27</v>
       </c>
       <c r="R75" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S75" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T75" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="U75" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="V75" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W75" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="X75" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y75" t="n">
         <v>35</v>
@@ -9577,10 +9577,10 @@
         <v>7.6</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB75" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC75" t="n">
         <v>100</v>
@@ -9589,22 +9589,22 @@
         <v>900</v>
       </c>
       <c r="AE75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ75" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
@@ -9642,10 +9642,10 @@
         <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -9677,7 +9677,7 @@
         <v>5.7</v>
       </c>
       <c r="U76" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V76" t="n">
         <v>8.5</v>
@@ -9707,13 +9707,13 @@
         <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF76" t="n">
         <v>26</v>
       </c>
       <c r="AG76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH76" t="n">
         <v>90</v>
@@ -9774,16 +9774,16 @@
         <v>2.95</v>
       </c>
       <c r="N77" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P77" t="n">
         <v>1.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R77" t="n">
         <v>1.98</v>
@@ -9792,10 +9792,10 @@
         <v>1.65</v>
       </c>
       <c r="T77" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U77" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="V77" t="n">
         <v>8.25</v>
@@ -9825,7 +9825,7 @@
         <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF77" t="n">
         <v>37</v>
@@ -9840,7 +9840,7 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
@@ -9875,10 +9875,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H78" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I78" t="n">
         <v>2.57</v>
@@ -9898,10 +9898,10 @@
         <v>1.47</v>
       </c>
       <c r="P78" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R78" t="n">
         <v>1.91</v>
@@ -9910,7 +9910,7 @@
         <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U78" t="n">
         <v>14</v>
@@ -9919,22 +9919,22 @@
         <v>10.75</v>
       </c>
       <c r="W78" t="n">
+        <v>37</v>
+      </c>
+      <c r="X78" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y78" t="n">
         <v>40</v>
       </c>
-      <c r="X78" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>45</v>
-      </c>
       <c r="Z78" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC78" t="n">
         <v>90</v>
@@ -9943,22 +9943,22 @@
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF78" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH78" t="n">
         <v>30</v>
       </c>
       <c r="AI78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -10025,7 +10025,7 @@
         <v>1.75</v>
       </c>
       <c r="S79" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T79" t="n">
         <v>7.7</v>
@@ -10070,7 +10070,7 @@
         <v>10</v>
       </c>
       <c r="AH79" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI79" t="n">
         <v>27</v>
@@ -10111,13 +10111,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>2.95</v>
       </c>
       <c r="I80" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10128,67 +10128,67 @@
         <v>3.1</v>
       </c>
       <c r="N80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O80" t="n">
         <v>1.82</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.78</v>
-      </c>
       <c r="P80" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R80" t="n">
         <v>1.6</v>
       </c>
       <c r="S80" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T80" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U80" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V80" t="n">
         <v>8.25</v>
       </c>
       <c r="W80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X80" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB80" t="n">
         <v>11.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD80" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE80" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG80" t="n">
         <v>11.75</v>
       </c>
-      <c r="AF80" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>12</v>
-      </c>
       <c r="AH80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI80" t="n">
         <v>32</v>
@@ -10229,90 +10229,90 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I81" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M81" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="N81" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="P81" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="R81" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="T81" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="U81" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W81" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="X81" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Z81" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE81" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA81" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>11</v>
-      </c>
       <c r="AF81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG81" t="n">
         <v>14.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI81" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ81" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I82" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -10361,13 +10361,13 @@
         <v>1.23</v>
       </c>
       <c r="M82" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N82" t="n">
         <v>1.7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10376,61 +10376,61 @@
         <v>2.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S82" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T82" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U82" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V82" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="W82" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X82" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
         <v>21</v>
       </c>
       <c r="Z82" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD82" t="n">
         <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG82" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI82" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="83">
@@ -10465,31 +10465,31 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M83" t="n">
         <v>3.5</v>
       </c>
-      <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K83" t="n">
-        <v>10</v>
-      </c>
-      <c r="L83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M83" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N83" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -10498,22 +10498,22 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S83" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T83" t="n">
+        <v>6</v>
+      </c>
+      <c r="U83" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U83" t="n">
-        <v>7</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
         <v>13</v>
@@ -10525,19 +10525,19 @@
         <v>9.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE83" t="n">
         <v>17</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>15</v>
       </c>
       <c r="AF83" t="n">
         <v>34</v>
@@ -10546,7 +10546,7 @@
         <v>21</v>
       </c>
       <c r="AH83" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="n">
         <v>51</v>
@@ -10709,94 +10709,94 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I85" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J85" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K85" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S85" t="n">
         <v>1.5</v>
       </c>
-      <c r="M85" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R85" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T85" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U85" t="n">
+        <v>11</v>
+      </c>
+      <c r="V85" t="n">
         <v>12</v>
       </c>
-      <c r="V85" t="n">
-        <v>11</v>
-      </c>
       <c r="W85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X85" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z85" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AA85" t="n">
         <v>6</v>
       </c>
       <c r="AB85" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC85" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AD85" t="n">
         <v>501</v>
       </c>
       <c r="AE85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF85" t="n">
         <v>12</v>
       </c>
       <c r="AG85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -10831,13 +10831,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J86" t="n">
         <v>1.1</v>
@@ -10870,16 +10870,16 @@
         <v>1.67</v>
       </c>
       <c r="T86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V86" t="n">
         <v>11</v>
       </c>
       <c r="W86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X86" t="n">
         <v>26</v>
@@ -10888,7 +10888,7 @@
         <v>41</v>
       </c>
       <c r="Z86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA86" t="n">
         <v>6</v>
@@ -10903,19 +10903,19 @@
         <v>501</v>
       </c>
       <c r="AE86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG86" t="n">
         <v>11</v>
       </c>
       <c r="AH86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ86" t="n">
         <v>41</v>
@@ -10953,13 +10953,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H87" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10968,22 +10968,22 @@
         <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O87" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P87" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R87" t="n">
         <v>1.75</v>
@@ -10992,19 +10992,19 @@
         <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W87" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
         <v>26</v>
@@ -11013,31 +11013,31 @@
         <v>11</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD87" t="n">
         <v>201</v>
       </c>
       <c r="AE87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ87" t="n">
         <v>34</v>
@@ -11108,7 +11108,7 @@
         <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S88" t="n">
         <v>1.65</v>
@@ -11135,7 +11135,7 @@
         <v>6.4</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB88" t="n">
         <v>20</v>
@@ -11159,7 +11159,7 @@
         <v>100</v>
       </c>
       <c r="AI88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ88" t="n">
         <v>70</v>
@@ -11197,85 +11197,85 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="H89" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J89" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K89" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M89" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="N89" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O89" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R89" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S89" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T89" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V89" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X89" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y89" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB89" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC89" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD89" t="n">
         <v>600</v>
       </c>
       <c r="AE89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG89" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH89" t="n">
         <v>45</v>
@@ -11510,7 +11510,7 @@
         <v>100</v>
       </c>
       <c r="AD91" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE91" t="n">
         <v>12.5</v>
@@ -11626,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="AB92" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC92" t="n">
         <v>110</v>
@@ -11685,46 +11685,46 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H93" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I93" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K93" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L93" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M93" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="N93" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="O93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P93" t="n">
         <v>1.52</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S93" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q93" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.52</v>
-      </c>
       <c r="T93" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="U93" t="n">
         <v>5.9</v>
@@ -11733,37 +11733,37 @@
         <v>9</v>
       </c>
       <c r="W93" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X93" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y93" t="n">
         <v>45</v>
       </c>
       <c r="Z93" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB93" t="n">
         <v>25</v>
       </c>
       <c r="AC93" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD93" t="n">
         <v>101</v>
       </c>
       <c r="AE93" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF93" t="n">
         <v>35</v>
       </c>
       <c r="AG93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH93" t="n">
         <v>150</v>
@@ -11807,13 +11807,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J94" t="n">
         <v>1.1</v>
@@ -11846,19 +11846,19 @@
         <v>1.7</v>
       </c>
       <c r="T94" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U94" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V94" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y94" t="n">
         <v>45</v>
@@ -11867,7 +11867,7 @@
         <v>5.7</v>
       </c>
       <c r="AA94" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB94" t="n">
         <v>17.5</v>
@@ -11879,16 +11879,16 @@
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF94" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
         <v>26</v>
@@ -11929,85 +11929,85 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I95" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J95" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K95" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M95" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N95" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O95" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="P95" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="R95" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="S95" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T95" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="U95" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="V95" t="n">
         <v>12.5</v>
       </c>
       <c r="W95" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y95" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB95" t="n">
         <v>70</v>
       </c>
-      <c r="Z95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>65</v>
-      </c>
       <c r="AC95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AD95" t="n">
         <v>101</v>
       </c>
       <c r="AE95" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AF95" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AG95" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH95" t="n">
         <v>101</v>
@@ -12090,22 +12090,22 @@
         <v>1.95</v>
       </c>
       <c r="T96" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U96" t="n">
         <v>10.75</v>
       </c>
       <c r="V96" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z96" t="n">
         <v>6.4</v>
@@ -12123,10 +12123,10 @@
         <v>500</v>
       </c>
       <c r="AE96" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG96" t="n">
         <v>11.5</v>
@@ -12138,7 +12138,7 @@
         <v>32</v>
       </c>
       <c r="AJ96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="H98" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I98" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -12330,31 +12330,31 @@
         <v>2.06</v>
       </c>
       <c r="T98" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U98" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V98" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W98" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X98" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z98" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA98" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC98" t="n">
         <v>40</v>
@@ -12366,19 +12366,19 @@
         <v>7.6</v>
       </c>
       <c r="AF98" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG98" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI98" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -12413,13 +12413,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="H99" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I99" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12438,61 +12438,61 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="S99" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T99" t="n">
         <v>6.3</v>
       </c>
       <c r="U99" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="V99" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="W99" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="X99" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y99" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z99" t="n">
         <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB99" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC99" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD99" t="n">
         <v>500</v>
       </c>
       <c r="AE99" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG99" t="n">
         <v>40</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>50</v>
       </c>
       <c r="AH99" t="n">
         <v>500</v>
       </c>
       <c r="AI99" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AJ99" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
@@ -12527,19 +12527,19 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J100" t="n">
         <v>1.04</v>
       </c>
       <c r="K100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L100" t="n">
         <v>1.22</v>
@@ -12548,10 +12548,10 @@
         <v>4</v>
       </c>
       <c r="N100" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O100" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P100" t="n">
         <v>1.33</v>
@@ -12569,22 +12569,22 @@
         <v>13</v>
       </c>
       <c r="U100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W100" t="n">
         <v>41</v>
       </c>
       <c r="X100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA100" t="n">
         <v>6.5</v>
@@ -12602,13 +12602,13 @@
         <v>9</v>
       </c>
       <c r="AF100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG100" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI100" t="n">
         <v>15</v>
@@ -12680,22 +12680,22 @@
         <v>2.15</v>
       </c>
       <c r="T101" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U101" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V101" t="n">
         <v>8.25</v>
       </c>
       <c r="W101" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X101" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z101" t="n">
         <v>12</v>
@@ -12716,7 +12716,7 @@
         <v>12</v>
       </c>
       <c r="AF101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG101" t="n">
         <v>11.75</v>
@@ -12728,7 +12728,7 @@
         <v>29</v>
       </c>
       <c r="AJ101" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -12763,13 +12763,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H102" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J102" t="n">
         <v>1.04</v>
@@ -12784,10 +12784,10 @@
         <v>4</v>
       </c>
       <c r="N102" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O102" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P102" t="n">
         <v>1.33</v>
@@ -12802,16 +12802,16 @@
         <v>1.83</v>
       </c>
       <c r="T102" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U102" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V102" t="n">
         <v>8.5</v>
       </c>
       <c r="W102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X102" t="n">
         <v>12</v>
@@ -12823,7 +12823,7 @@
         <v>12</v>
       </c>
       <c r="AA102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB102" t="n">
         <v>17</v>
@@ -12832,25 +12832,25 @@
         <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF102" t="n">
         <v>34</v>
       </c>
       <c r="AG102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH102" t="n">
         <v>67</v>
       </c>
       <c r="AI102" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ102" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -12885,13 +12885,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J103" t="n">
         <v>1.06</v>
@@ -12918,13 +12918,13 @@
         <v>2.63</v>
       </c>
       <c r="R103" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S103" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U103" t="n">
         <v>17</v>
@@ -12933,7 +12933,7 @@
         <v>12</v>
       </c>
       <c r="W103" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X103" t="n">
         <v>29</v>
@@ -12960,7 +12960,7 @@
         <v>7.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG103" t="n">
         <v>9</v>
@@ -13007,19 +13007,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H104" t="n">
         <v>6.5</v>
       </c>
       <c r="I104" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J104" t="n">
         <v>1.03</v>
       </c>
       <c r="K104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
         <v>1.2</v>
@@ -13055,7 +13055,7 @@
         <v>9.5</v>
       </c>
       <c r="W104" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X104" t="n">
         <v>12</v>
@@ -13073,7 +13073,7 @@
         <v>29</v>
       </c>
       <c r="AC104" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD104" t="n">
         <v>1000</v>
@@ -13085,10 +13085,10 @@
         <v>41</v>
       </c>
       <c r="AG104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH104" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI104" t="n">
         <v>67</v>
@@ -13129,13 +13129,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>3.1</v>
       </c>
       <c r="I105" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J105" t="n">
         <v>1.08</v>
@@ -13150,10 +13150,10 @@
         <v>2.75</v>
       </c>
       <c r="N105" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O105" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P105" t="n">
         <v>1.5</v>
@@ -13162,16 +13162,16 @@
         <v>2.5</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S105" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V105" t="n">
         <v>13</v>
@@ -13186,34 +13186,34 @@
         <v>41</v>
       </c>
       <c r="Z105" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA105" t="n">
         <v>6</v>
       </c>
       <c r="AB105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC105" t="n">
         <v>51</v>
       </c>
       <c r="AD105" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE105" t="n">
         <v>6.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH105" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI105" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ105" t="n">
         <v>34</v>
@@ -13251,10 +13251,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H106" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I106" t="n">
         <v>4.75</v>
@@ -13266,49 +13266,49 @@
         <v>9</v>
       </c>
       <c r="L106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N106" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O106" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P106" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S106" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T106" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U106" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W106" t="n">
+        <v>13</v>
+      </c>
+      <c r="X106" t="n">
         <v>15</v>
       </c>
-      <c r="X106" t="n">
-        <v>17</v>
-      </c>
       <c r="Y106" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z106" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA106" t="n">
         <v>6.5</v>
@@ -13317,13 +13317,13 @@
         <v>17</v>
       </c>
       <c r="AC106" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD106" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF106" t="n">
         <v>23</v>
@@ -13338,7 +13338,7 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -13388,34 +13388,34 @@
         <v>13</v>
       </c>
       <c r="L107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M107" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N107" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O107" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R107" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S107" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T107" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U107" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V107" t="n">
         <v>8.5</v>
@@ -13424,13 +13424,13 @@
         <v>10</v>
       </c>
       <c r="X107" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z107" t="n">
         <v>13</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>11</v>
       </c>
       <c r="AA107" t="n">
         <v>9</v>
@@ -13442,7 +13442,7 @@
         <v>67</v>
       </c>
       <c r="AD107" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE107" t="n">
         <v>13</v>
@@ -13451,16 +13451,16 @@
         <v>29</v>
       </c>
       <c r="AG107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH107" t="n">
         <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -13498,43 +13498,43 @@
         <v>1.2</v>
       </c>
       <c r="H108" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
         <v>15</v>
       </c>
       <c r="J108" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O108" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R108" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S108" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T108" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U108" t="n">
         <v>5.5</v>
@@ -13546,13 +13546,13 @@
         <v>6.5</v>
       </c>
       <c r="X108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y108" t="n">
         <v>41</v>
       </c>
       <c r="Z108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA108" t="n">
         <v>12</v>
@@ -13561,7 +13561,7 @@
         <v>34</v>
       </c>
       <c r="AC108" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD108" t="n">
         <v>501</v>
@@ -13579,7 +13579,7 @@
         <v>251</v>
       </c>
       <c r="AI108" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ108" t="n">
         <v>101</v>
@@ -13861,13 +13861,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>2.9</v>
       </c>
       <c r="I111" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13936,10 +13936,10 @@
         <v>9.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH111" t="n">
         <v>26</v>
@@ -13983,43 +13983,43 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J112" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K112" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M112" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N112" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O112" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R112" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S112" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T112" t="n">
         <v>5.5</v>
@@ -14031,19 +14031,19 @@
         <v>9</v>
       </c>
       <c r="W112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X112" t="n">
         <v>17</v>
       </c>
       <c r="Y112" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB112" t="n">
         <v>21</v>
@@ -14058,7 +14058,7 @@
         <v>11</v>
       </c>
       <c r="AF112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG112" t="n">
         <v>19</v>
@@ -14067,7 +14067,7 @@
         <v>51</v>
       </c>
       <c r="AI112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ112" t="n">
         <v>51</v>
@@ -14117,7 +14117,7 @@
         <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L113" t="n">
         <v>1.33</v>
@@ -14227,19 +14227,19 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I114" t="n">
         <v>3.6</v>
       </c>
       <c r="J114" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
         <v>1.2</v>
@@ -14248,31 +14248,31 @@
         <v>4.33</v>
       </c>
       <c r="N114" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O114" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S114" t="n">
         <v>2.2</v>
       </c>
-      <c r="P114" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R114" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S114" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U114" t="n">
         <v>11</v>
       </c>
       <c r="V114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W114" t="n">
         <v>17</v>
@@ -14281,19 +14281,19 @@
         <v>15</v>
       </c>
       <c r="Y114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD114" t="n">
         <v>126</v>
@@ -14311,10 +14311,10 @@
         <v>41</v>
       </c>
       <c r="AI114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -14471,19 +14471,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I116" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J116" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L116" t="n">
         <v>1.2</v>
@@ -14492,16 +14492,16 @@
         <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O116" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P116" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R116" t="n">
         <v>1.57</v>
@@ -14510,25 +14510,25 @@
         <v>2.25</v>
       </c>
       <c r="T116" t="n">
+        <v>12</v>
+      </c>
+      <c r="U116" t="n">
+        <v>17</v>
+      </c>
+      <c r="V116" t="n">
+        <v>11</v>
+      </c>
+      <c r="W116" t="n">
+        <v>29</v>
+      </c>
+      <c r="X116" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z116" t="n">
         <v>13</v>
-      </c>
-      <c r="U116" t="n">
-        <v>19</v>
-      </c>
-      <c r="V116" t="n">
-        <v>12</v>
-      </c>
-      <c r="W116" t="n">
-        <v>34</v>
-      </c>
-      <c r="X116" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>15</v>
       </c>
       <c r="AA116" t="n">
         <v>7</v>
@@ -14546,19 +14546,19 @@
         <v>10</v>
       </c>
       <c r="AF116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
@@ -14593,13 +14593,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="J117" t="n">
         <v>1.07</v>
@@ -14608,22 +14608,22 @@
         <v>7.5</v>
       </c>
       <c r="L117" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N117" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O117" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P117" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R117" t="n">
         <v>2</v>
@@ -14632,55 +14632,55 @@
         <v>1.73</v>
       </c>
       <c r="T117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U117" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V117" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W117" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y117" t="n">
         <v>34</v>
       </c>
       <c r="Z117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF117" t="n">
         <v>19</v>
       </c>
-      <c r="AC117" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>23</v>
-      </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI117" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ117" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="118">
@@ -14715,13 +14715,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J118" t="n">
         <v>1.08</v>
@@ -14730,31 +14730,31 @@
         <v>8</v>
       </c>
       <c r="L118" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M118" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N118" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O118" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P118" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R118" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U118" t="n">
         <v>12</v>
@@ -14772,7 +14772,7 @@
         <v>41</v>
       </c>
       <c r="Z118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA118" t="n">
         <v>6</v>
@@ -14781,13 +14781,13 @@
         <v>17</v>
       </c>
       <c r="AC118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD118" t="n">
         <v>1000</v>
       </c>
       <c r="AE118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF118" t="n">
         <v>12</v>
@@ -14796,10 +14796,10 @@
         <v>11</v>
       </c>
       <c r="AH118" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI118" t="n">
         <v>26</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>23</v>
       </c>
       <c r="AJ118" t="n">
         <v>41</v>
@@ -14840,82 +14840,82 @@
         <v>2.2</v>
       </c>
       <c r="H119" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
       </c>
       <c r="K119" t="n">
+        <v>17</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T119" t="n">
+        <v>13</v>
+      </c>
+      <c r="U119" t="n">
         <v>15</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M119" t="n">
-        <v>5</v>
-      </c>
-      <c r="N119" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O119" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P119" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R119" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S119" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T119" t="n">
-        <v>11</v>
-      </c>
-      <c r="U119" t="n">
-        <v>13</v>
       </c>
       <c r="V119" t="n">
         <v>9.5</v>
       </c>
       <c r="W119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X119" t="n">
         <v>15</v>
       </c>
       <c r="Y119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z119" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB119" t="n">
         <v>11</v>
       </c>
       <c r="AC119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD119" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF119" t="n">
         <v>19</v>
       </c>
       <c r="AG119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH119" t="n">
         <v>34</v>
@@ -14924,7 +14924,7 @@
         <v>21</v>
       </c>
       <c r="AJ119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
@@ -14959,13 +14959,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H120" t="n">
         <v>3.1</v>
       </c>
       <c r="I120" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J120" t="n">
         <v>1.08</v>
@@ -14974,22 +14974,22 @@
         <v>7</v>
       </c>
       <c r="L120" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M120" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N120" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O120" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R120" t="n">
         <v>2.1</v>
@@ -15010,13 +15010,13 @@
         <v>15</v>
       </c>
       <c r="X120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y120" t="n">
         <v>34</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA120" t="n">
         <v>6.5</v>
@@ -15037,7 +15037,7 @@
         <v>21</v>
       </c>
       <c r="AG120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH120" t="n">
         <v>41</v>
@@ -15081,70 +15081,70 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="H121" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="J121" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L121" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N121" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O121" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T121" t="n">
         <v>6</v>
       </c>
       <c r="U121" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
       </c>
       <c r="W121" t="n">
+        <v>11</v>
+      </c>
+      <c r="X121" t="n">
         <v>15</v>
-      </c>
-      <c r="X121" t="n">
-        <v>17</v>
       </c>
       <c r="Y121" t="n">
         <v>34</v>
       </c>
       <c r="Z121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB121" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC121" t="n">
         <v>67</v>
@@ -15153,22 +15153,22 @@
         <v>900</v>
       </c>
       <c r="AE121" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF121" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG121" t="n">
         <v>21</v>
       </c>
-      <c r="AG121" t="n">
-        <v>17</v>
-      </c>
       <c r="AH121" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI121" t="n">
         <v>51</v>
       </c>
-      <c r="AI121" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ121" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122">
@@ -15212,10 +15212,10 @@
         <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L122" t="n">
         <v>1.3</v>
@@ -15325,13 +15325,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J123" t="n">
         <v>1.03</v>
@@ -15358,19 +15358,19 @@
         <v>3.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U123" t="n">
         <v>7</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W123" t="n">
         <v>8.5</v>
@@ -15385,7 +15385,7 @@
         <v>17</v>
       </c>
       <c r="AA123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB123" t="n">
         <v>21</v>
@@ -15397,7 +15397,7 @@
         <v>301</v>
       </c>
       <c r="AE123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF123" t="n">
         <v>41</v>
@@ -15447,13 +15447,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>3.25</v>
       </c>
       <c r="I124" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J124" t="n">
         <v>1.06</v>
@@ -15474,19 +15474,19 @@
         <v>1.83</v>
       </c>
       <c r="P124" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R124" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S124" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U124" t="n">
         <v>13</v>
@@ -15504,7 +15504,7 @@
         <v>29</v>
       </c>
       <c r="Z124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA124" t="n">
         <v>6</v>
@@ -15516,7 +15516,7 @@
         <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE124" t="n">
         <v>8.5</v>
@@ -15816,7 +15816,7 @@
         <v>1.57</v>
       </c>
       <c r="H127" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I127" t="n">
         <v>4.8</v>
@@ -15834,28 +15834,28 @@
         <v>4.25</v>
       </c>
       <c r="N127" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O127" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="P127" t="n">
         <v>1.3</v>
       </c>
       <c r="Q127" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R127" t="n">
         <v>1.65</v>
       </c>
       <c r="S127" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T127" t="n">
+        <v>9</v>
+      </c>
+      <c r="U127" t="n">
         <v>8.75</v>
-      </c>
-      <c r="U127" t="n">
-        <v>8.5</v>
       </c>
       <c r="V127" t="n">
         <v>8.25</v>
@@ -15867,7 +15867,7 @@
         <v>11.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z127" t="n">
         <v>9</v>
@@ -15876,7 +15876,7 @@
         <v>8.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC127" t="n">
         <v>55</v>
@@ -15885,7 +15885,7 @@
         <v>350</v>
       </c>
       <c r="AE127" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF127" t="n">
         <v>30</v>
@@ -16057,10 +16057,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I129" t="n">
         <v>10</v>
@@ -16069,37 +16069,37 @@
         <v>1.03</v>
       </c>
       <c r="K129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L129" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M129" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O129" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P129" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R129" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S129" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
@@ -16111,31 +16111,31 @@
         <v>11</v>
       </c>
       <c r="Y129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB129" t="n">
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD129" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE129" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG129" t="n">
         <v>26</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>29</v>
       </c>
       <c r="AH129" t="n">
         <v>126</v>
@@ -16179,43 +16179,43 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H130" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
       </c>
       <c r="K130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L130" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M130" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N130" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O130" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S130" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -16227,7 +16227,7 @@
         <v>15</v>
       </c>
       <c r="W130" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X130" t="n">
         <v>34</v>
@@ -16236,13 +16236,13 @@
         <v>34</v>
       </c>
       <c r="Z130" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
         <v>13</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>15</v>
       </c>
       <c r="AC130" t="n">
         <v>41</v>
@@ -16251,16 +16251,16 @@
         <v>151</v>
       </c>
       <c r="AE130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG130" t="n">
         <v>8.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI130" t="n">
         <v>13</v>
@@ -16304,91 +16304,91 @@
         <v>3.85</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J131" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K131" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L131" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M131" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="N131" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="O131" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P131" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R131" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S131" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T131" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="U131" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="V131" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W131" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X131" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y131" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Z131" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AA131" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB131" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC131" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD131" t="n">
         <v>800</v>
       </c>
       <c r="AE131" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AF131" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI131" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ131" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
@@ -16423,10 +16423,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H132" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I132" t="n">
         <v>11.25</v>
@@ -16434,79 +16434,79 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M132" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="N132" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="O132" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="P132" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q132" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="R132" t="n">
-        <v>2.37</v>
+        <v>2.18</v>
       </c>
       <c r="S132" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="T132" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="U132" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="V132" t="n">
         <v>9.75</v>
       </c>
       <c r="W132" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X132" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA132" t="n">
         <v>12</v>
       </c>
-      <c r="Y132" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z132" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AB132" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC132" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AD132" t="n">
         <v>101</v>
       </c>
       <c r="AE132" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF132" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG132" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH132" t="n">
         <v>400</v>
       </c>
       <c r="AI132" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ132" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133">
@@ -16907,10 +16907,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H136" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -16928,10 +16928,10 @@
         <v>2.62</v>
       </c>
       <c r="N136" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O136" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P136" t="n">
         <v>1.47</v>
@@ -16940,40 +16940,40 @@
         <v>2.32</v>
       </c>
       <c r="R136" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S136" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T136" t="n">
         <v>6.8</v>
       </c>
       <c r="U136" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V136" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W136" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X136" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y136" t="n">
         <v>35</v>
       </c>
       <c r="Z136" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA136" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB136" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD136" t="n">
         <v>700</v>
@@ -16982,16 +16982,16 @@
         <v>8.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG136" t="n">
         <v>10.75</v>
       </c>
       <c r="AH136" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI136" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ136" t="n">
         <v>37</v>
@@ -17029,13 +17029,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H137" t="n">
         <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -17064,28 +17064,28 @@
         <v>1.91</v>
       </c>
       <c r="T137" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="U137" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V137" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W137" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X137" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z137" t="n">
         <v>9</v>
       </c>
       <c r="AA137" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB137" t="n">
         <v>13.5</v>
@@ -17097,22 +17097,22 @@
         <v>500</v>
       </c>
       <c r="AE137" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF137" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG137" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI137" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ137" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="O2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.63</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -790,10 +790,10 @@
         <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -845,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -910,10 +910,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -922,10 +922,10 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
         <v>9</v>
@@ -934,49 +934,49 @@
         <v>19</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X4" t="n">
         <v>41</v>
       </c>
       <c r="Y4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG4" t="n">
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1032,10 +1032,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1044,13 +1044,13 @@
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
         <v>7.5</v>
@@ -1059,16 +1059,16 @@
         <v>8.5</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1083,10 +1083,10 @@
         <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1166,16 +1166,16 @@
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9.5</v>
@@ -1187,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1217,10 +1217,10 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1258,43 +1258,43 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.57</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Q7" t="n">
         <v>2.25</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
@@ -1312,16 +1312,16 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
         <v>501</v>
@@ -1330,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
@@ -1410,37 +1410,37 @@
         <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1449,22 +1449,22 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1520,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1532,25 +1532,25 @@
         <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
+        <v>17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>26</v>
+      </c>
+      <c r="V9" t="n">
         <v>15</v>
       </c>
-      <c r="U9" t="n">
-        <v>21</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13</v>
-      </c>
       <c r="W9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
@@ -1559,10 +1559,10 @@
         <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1574,19 +1574,19 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1642,10 +1642,10 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
         <v>1.3</v>
@@ -1746,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1764,25 +1764,25 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U11" t="n">
         <v>19</v>
@@ -1794,31 +1794,31 @@
         <v>34</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
@@ -1830,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1871,13 +1871,13 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>1.2</v>
@@ -1886,10 +1886,10 @@
         <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
         <v>1.3</v>
@@ -1922,7 +1922,7 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
@@ -1987,13 +1987,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2121,7 +2121,7 @@
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1.18</v>
@@ -2130,10 +2130,10 @@
         <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2160,7 +2160,7 @@
         <v>41</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2252,10 +2252,10 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.36</v>
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2374,73 +2374,73 @@
         <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X16" t="n">
         <v>17</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>1.22</v>
@@ -2517,7 +2517,7 @@
         <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
@@ -2529,7 +2529,7 @@
         <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
@@ -2550,19 +2550,19 @@
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2597,19 +2597,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2636,16 +2636,16 @@
         <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
@@ -2669,19 +2669,19 @@
         <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2719,31 +2719,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M19" t="n">
         <v>3.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N19" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2758,22 +2758,22 @@
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
+        <v>34</v>
+      </c>
+      <c r="X19" t="n">
         <v>23</v>
       </c>
-      <c r="X19" t="n">
-        <v>19</v>
-      </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>12</v>
@@ -2788,22 +2788,22 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
@@ -2984,10 +2984,10 @@
         <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
         <v>11</v>
@@ -3103,13 +3103,13 @@
         <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3118,37 +3118,37 @@
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
+        <v>21</v>
+      </c>
+      <c r="X22" t="n">
         <v>17</v>
       </c>
-      <c r="X22" t="n">
-        <v>15</v>
-      </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
@@ -3157,22 +3157,22 @@
         <v>151</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.8</v>
       </c>
       <c r="J23" t="n">
         <v>1.06</v>
@@ -3231,7 +3231,7 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P23" t="n">
         <v>1.42</v>
@@ -3246,19 +3246,19 @@
         <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
         <v>30</v>
@@ -3279,19 +3279,19 @@
         <v>700</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ23" t="n">
         <v>45</v>
@@ -3344,10 +3344,10 @@
         <v>6.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N24" t="n">
         <v>2.2</v>
@@ -3380,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
@@ -3404,7 +3404,7 @@
         <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3413,10 +3413,10 @@
         <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3451,19 +3451,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.42</v>
@@ -3484,37 +3484,37 @@
         <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
         <v>110</v>
@@ -3523,22 +3523,22 @@
         <v>1250</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3695,19 +3695,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
         <v>6.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3716,10 +3716,10 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3817,13 +3817,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.13</v>
@@ -3865,16 +3865,16 @@
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3892,13 +3892,13 @@
         <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
         <v>34</v>
@@ -3939,13 +3939,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>1.1</v>
@@ -3987,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
         <v>23</v>
@@ -3996,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
@@ -4005,25 +4005,25 @@
         <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="n">
         <v>501</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.07</v>
@@ -4082,10 +4082,10 @@
         <v>3.2</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -4145,7 +4145,7 @@
         <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>41</v>
@@ -4204,7 +4204,7 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
@@ -4216,10 +4216,10 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
         <v>9</v>
@@ -4305,31 +4305,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4344,16 +4344,16 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4365,10 +4365,10 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
         <v>51</v>
@@ -4377,7 +4377,7 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -4389,7 +4389,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
         <v>41</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4466,19 +4466,19 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>23</v>
@@ -4487,13 +4487,13 @@
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
         <v>201</v>
@@ -4502,19 +4502,19 @@
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
         <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
         <v>1.1</v>
@@ -4588,10 +4588,10 @@
         <v>1.67</v>
       </c>
       <c r="T34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>10</v>
@@ -4627,10 +4627,10 @@
         <v>15</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>34</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4686,10 +4686,10 @@
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N35" t="n">
         <v>2.1</v>
@@ -4746,7 +4746,7 @@
         <v>9.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4793,19 +4793,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.1</v>
       </c>
       <c r="J36" t="n">
         <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -4820,22 +4820,22 @@
         <v>1.67</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
@@ -4844,7 +4844,7 @@
         <v>21</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4871,16 +4871,16 @@
         <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -4915,13 +4915,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
         <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
@@ -4996,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
@@ -5037,19 +5037,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -5058,10 +5058,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5118,13 +5118,13 @@
         <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
         <v>41</v>
       </c>
       <c r="AJ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -5174,22 +5174,22 @@
         <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
         <v>2.25</v>
@@ -5198,16 +5198,16 @@
         <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U39" t="n">
         <v>41</v>
       </c>
       <c r="V39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X39" t="n">
         <v>67</v>
@@ -5219,10 +5219,10 @@
         <v>10</v>
       </c>
       <c r="AA39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC39" t="n">
         <v>81</v>
@@ -5240,7 +5240,7 @@
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
         <v>13</v>
@@ -5293,19 +5293,19 @@
         <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P40" t="n">
         <v>1.44</v>
@@ -5320,7 +5320,7 @@
         <v>1.91</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
         <v>15</v>
@@ -5406,16 +5406,16 @@
         <v>1.3</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L41" t="n">
         <v>1.14</v>
@@ -5448,7 +5448,7 @@
         <v>7.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
         <v>9</v>
@@ -5457,7 +5457,7 @@
         <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="n">
         <v>17</v>
@@ -5466,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5546,10 +5546,10 @@
         <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5564,22 +5564,22 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U42" t="n">
         <v>13</v>
       </c>
       <c r="V42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z42" t="n">
         <v>9.5</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5597,16 +5597,16 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
         <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -5668,22 +5668,22 @@
         <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T43" t="n">
         <v>6.5</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -5713,10 +5713,10 @@
         <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD43" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE43" t="n">
         <v>15</v>
@@ -5731,7 +5731,7 @@
         <v>67</v>
       </c>
       <c r="AI43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5790,10 +5790,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5811,13 +5811,13 @@
         <v>7</v>
       </c>
       <c r="U44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -5841,10 +5841,10 @@
         <v>301</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
         <v>17</v>
@@ -5894,7 +5894,7 @@
         <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
         <v>4.75</v>
@@ -5924,10 +5924,10 @@
         <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
         <v>9</v>
@@ -5942,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
         <v>21</v>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
@@ -6028,49 +6028,49 @@
         <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
         <v>11</v>
       </c>
       <c r="U46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V46" t="n">
         <v>12</v>
       </c>
       <c r="W46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y46" t="n">
         <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA46" t="n">
         <v>6.5</v>
@@ -6085,10 +6085,10 @@
         <v>201</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
@@ -6100,7 +6100,7 @@
         <v>17</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -6135,13 +6135,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -6150,16 +6150,16 @@
         <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O47" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6168,34 +6168,34 @@
         <v>2.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB47" t="n">
         <v>15</v>
@@ -6204,7 +6204,7 @@
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE47" t="n">
         <v>9.5</v>
@@ -6219,10 +6219,10 @@
         <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6296,7 +6296,7 @@
         <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U48" t="n">
         <v>12</v>
@@ -6329,7 +6329,7 @@
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
@@ -6341,7 +6341,7 @@
         <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>29</v>
@@ -6382,7 +6382,7 @@
         <v>3.6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
         <v>2.05</v>
@@ -6394,10 +6394,10 @@
         <v>6.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N49" t="n">
         <v>2.6</v>
@@ -6406,16 +6406,16 @@
         <v>1.48</v>
       </c>
       <c r="P49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S49" t="n">
         <v>1.62</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.57</v>
       </c>
       <c r="T49" t="n">
         <v>7.5</v>
@@ -6457,7 +6457,7 @@
         <v>8.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH49" t="n">
         <v>19</v>
@@ -6522,10 +6522,10 @@
         <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6644,10 +6644,10 @@
         <v>3.4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O51" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P51" t="n">
         <v>1.4</v>
@@ -6752,10 +6752,10 @@
         <v>3.4</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
         <v>1.36</v>
@@ -6800,7 +6800,7 @@
         <v>29</v>
       </c>
       <c r="Z52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
@@ -6812,7 +6812,7 @@
         <v>51</v>
       </c>
       <c r="AD52" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE52" t="n">
         <v>9.5</v>
@@ -6865,13 +6865,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I53" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.05</v>
@@ -6892,10 +6892,10 @@
         <v>1.95</v>
       </c>
       <c r="P53" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R53" t="n">
         <v>1.73</v>
@@ -6913,16 +6913,16 @@
         <v>8.5</v>
       </c>
       <c r="W53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X53" t="n">
         <v>15</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -6937,10 +6937,10 @@
         <v>201</v>
       </c>
       <c r="AE53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
@@ -7002,49 +7002,49 @@
         <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W54" t="n">
         <v>41</v>
       </c>
       <c r="X54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y54" t="n">
         <v>41</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -7056,16 +7056,16 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE54" t="n">
         <v>7</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH54" t="n">
         <v>17</v>
@@ -7074,7 +7074,7 @@
         <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -7109,13 +7109,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7124,22 +7124,22 @@
         <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R55" t="n">
         <v>1.83</v>
@@ -7148,10 +7148,10 @@
         <v>1.83</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V55" t="n">
         <v>10</v>
@@ -7166,10 +7166,10 @@
         <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB55" t="n">
         <v>15</v>
@@ -7178,22 +7178,22 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE55" t="n">
         <v>8</v>
       </c>
       <c r="AF55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7231,19 +7231,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
         <v>1.36</v>
@@ -7264,25 +7264,25 @@
         <v>2.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T56" t="n">
         <v>6.5</v>
       </c>
       <c r="U56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V56" t="n">
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y56" t="n">
         <v>34</v>
@@ -7291,13 +7291,13 @@
         <v>8.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB56" t="n">
         <v>17</v>
       </c>
       <c r="AC56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
         <v>401</v>
@@ -7309,13 +7309,13 @@
         <v>17</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
         <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="n">
         <v>41</v>
@@ -7353,37 +7353,37 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
         <v>2.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="P57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
         <v>1.83</v>
@@ -7392,7 +7392,7 @@
         <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U57" t="n">
         <v>12</v>
@@ -7401,19 +7401,19 @@
         <v>10</v>
       </c>
       <c r="W57" t="n">
+        <v>26</v>
+      </c>
+      <c r="X57" t="n">
         <v>23</v>
-      </c>
-      <c r="X57" t="n">
-        <v>21</v>
       </c>
       <c r="Y57" t="n">
         <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB57" t="n">
         <v>15</v>
@@ -7422,10 +7422,10 @@
         <v>51</v>
       </c>
       <c r="AD57" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF57" t="n">
         <v>13</v>
@@ -7475,28 +7475,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
         <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -7514,16 +7514,16 @@
         <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
       </c>
       <c r="W58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X58" t="n">
         <v>15</v>
@@ -7532,10 +7532,10 @@
         <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -7544,25 +7544,25 @@
         <v>41</v>
       </c>
       <c r="AD58" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG58" t="n">
         <v>13</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>15</v>
       </c>
       <c r="AH58" t="n">
         <v>41</v>
       </c>
       <c r="AI58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -7597,88 +7597,88 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L59" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M59" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O59" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P59" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R59" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U59" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V59" t="n">
         <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X59" t="n">
         <v>12</v>
       </c>
       <c r="Y59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE59" t="n">
         <v>15</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>17</v>
       </c>
       <c r="AF59" t="n">
         <v>29</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI59" t="n">
         <v>41</v>
@@ -7722,43 +7722,43 @@
         <v>1.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
         <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U60" t="n">
         <v>8</v>
@@ -7776,19 +7776,19 @@
         <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
         <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -7963,37 +7963,37 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R62" t="n">
         <v>2</v>
@@ -8005,13 +8005,13 @@
         <v>6</v>
       </c>
       <c r="U62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X62" t="n">
         <v>13</v>
@@ -8020,10 +8020,10 @@
         <v>29</v>
       </c>
       <c r="Z62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="n">
         <v>19</v>
@@ -8032,19 +8032,19 @@
         <v>67</v>
       </c>
       <c r="AD62" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE62" t="n">
         <v>15</v>
       </c>
       <c r="AF62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI62" t="n">
         <v>51</v>
@@ -8085,13 +8085,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H63" t="n">
         <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -8102,7 +8102,7 @@
         <v>3.4</v>
       </c>
       <c r="N63" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O63" t="n">
         <v>1.78</v>
@@ -8120,19 +8120,19 @@
         <v>2.05</v>
       </c>
       <c r="T63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U63" t="n">
         <v>9.5</v>
       </c>
       <c r="V63" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="W63" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X63" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -8144,25 +8144,25 @@
         <v>5.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD63" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE63" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF63" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG63" t="n">
         <v>8.75</v>
       </c>
       <c r="AH63" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
         <v>19</v>
@@ -8203,21 +8203,21 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I64" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M64" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="N64" t="n">
         <v>1.78</v>
@@ -8228,58 +8228,58 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S64" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U64" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>30</v>
+      </c>
+      <c r="X64" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF64" t="n">
         <v>8.5</v>
       </c>
-      <c r="U64" t="n">
+      <c r="AG64" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI64" t="n">
         <v>13</v>
-      </c>
-      <c r="V64" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W64" t="n">
-        <v>28</v>
-      </c>
-      <c r="X64" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>14</v>
       </c>
       <c r="AJ64" t="n">
         <v>20</v>
@@ -8317,13 +8317,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -8342,61 +8342,61 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S65" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U65" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V65" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="W65" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X65" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
         <v>5.9</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD65" t="n">
         <v>150</v>
       </c>
       <c r="AE65" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF65" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AG65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH65" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ65" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="66">
@@ -8431,19 +8431,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>3.2</v>
       </c>
       <c r="I66" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J66" t="n">
         <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
         <v>1.36</v>
@@ -8473,7 +8473,7 @@
         <v>7.5</v>
       </c>
       <c r="U66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V66" t="n">
         <v>10</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J67" t="n">
         <v>1.05</v>
@@ -8574,10 +8574,10 @@
         <v>3.5</v>
       </c>
       <c r="N67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.9</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8610,10 +8610,10 @@
         <v>41</v>
       </c>
       <c r="Z67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB67" t="n">
         <v>17</v>
@@ -8622,7 +8622,7 @@
         <v>51</v>
       </c>
       <c r="AD67" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE67" t="n">
         <v>7</v>
@@ -8637,7 +8637,7 @@
         <v>13</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ67" t="n">
         <v>26</v>
@@ -8675,13 +8675,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J68" t="n">
         <v>1.04</v>
@@ -8690,34 +8690,34 @@
         <v>13</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M68" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O68" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R68" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S68" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
@@ -8732,7 +8732,7 @@
         <v>23</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA68" t="n">
         <v>7</v>
@@ -8741,7 +8741,7 @@
         <v>15</v>
       </c>
       <c r="AC68" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD68" t="n">
         <v>201</v>
@@ -8800,43 +8800,43 @@
         <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N69" t="n">
         <v>2.25</v>
       </c>
-      <c r="J69" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.15</v>
-      </c>
       <c r="O69" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R69" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U69" t="n">
         <v>15</v>
@@ -8848,19 +8848,19 @@
         <v>34</v>
       </c>
       <c r="X69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y69" t="n">
         <v>41</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
         <v>51</v>
@@ -8872,13 +8872,13 @@
         <v>7</v>
       </c>
       <c r="AF69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG69" t="n">
         <v>10</v>
       </c>
-      <c r="AG69" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI69" t="n">
         <v>21</v>
@@ -9056,16 +9056,16 @@
         <v>11</v>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P71" t="n">
         <v>1.4</v>
@@ -9163,13 +9163,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I72" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J72" t="n">
         <v>1.1</v>
@@ -9178,76 +9178,76 @@
         <v>6.2</v>
       </c>
       <c r="L72" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M72" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="N72" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="O72" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P72" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S72" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T72" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="U72" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="V72" t="n">
         <v>9</v>
       </c>
       <c r="W72" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="X72" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y72" t="n">
         <v>40</v>
       </c>
       <c r="Z72" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC72" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD72" t="n">
         <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AF72" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH72" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ72" t="n">
         <v>60</v>
@@ -9403,13 +9403,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="H74" t="n">
         <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9441,19 +9441,19 @@
         <v>8</v>
       </c>
       <c r="U74" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V74" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W74" t="n">
+        <v>35</v>
+      </c>
+      <c r="X74" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y74" t="n">
         <v>37</v>
-      </c>
-      <c r="X74" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>40</v>
       </c>
       <c r="Z74" t="n">
         <v>8</v>
@@ -9471,19 +9471,19 @@
         <v>700</v>
       </c>
       <c r="AE74" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF74" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG74" t="n">
         <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ74" t="n">
         <v>35</v>
@@ -9521,13 +9521,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H75" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -9535,7 +9535,7 @@
         <v>1.4</v>
       </c>
       <c r="M75" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N75" t="n">
         <v>2.15</v>
@@ -9550,58 +9550,58 @@
         <v>2.27</v>
       </c>
       <c r="R75" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S75" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T75" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U75" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V75" t="n">
         <v>9</v>
       </c>
       <c r="W75" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X75" t="n">
         <v>18</v>
       </c>
       <c r="Y75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z75" t="n">
         <v>7.6</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB75" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD75" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE75" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF75" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG75" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="n">
         <v>55</v>
@@ -9642,42 +9642,42 @@
         <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I76" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M76" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="N76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R76" t="n">
         <v>2.05</v>
       </c>
-      <c r="O76" t="n">
+      <c r="S76" t="n">
         <v>1.6</v>
       </c>
-      <c r="P76" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T76" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U76" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V76" t="n">
         <v>8.5</v>
@@ -9686,43 +9686,43 @@
         <v>12.5</v>
       </c>
       <c r="X76" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z76" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA76" t="n">
         <v>6.8</v>
       </c>
       <c r="AB76" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC76" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD76" t="n">
         <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG76" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH76" t="n">
         <v>90</v>
       </c>
       <c r="AI76" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ76" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
@@ -9768,79 +9768,79 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M77" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="N77" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O77" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R77" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S77" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T77" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U77" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X77" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z77" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB77" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD77" t="n">
         <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF77" t="n">
         <v>37</v>
       </c>
       <c r="AG77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH77" t="n">
         <v>150</v>
       </c>
       <c r="AI77" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
@@ -9875,13 +9875,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I78" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9904,49 +9904,49 @@
         <v>2.15</v>
       </c>
       <c r="R78" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="n">
         <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V78" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W78" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X78" t="n">
         <v>28</v>
       </c>
       <c r="Y78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA78" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD78" t="n">
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG78" t="n">
         <v>10.25</v>
@@ -9993,13 +9993,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H79" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="I79" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -10028,22 +10028,22 @@
         <v>1.85</v>
       </c>
       <c r="T79" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W79" t="n">
         <v>40</v>
       </c>
       <c r="X79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y79" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z79" t="n">
         <v>6.6</v>
@@ -10052,7 +10052,7 @@
         <v>5.1</v>
       </c>
       <c r="AB79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC79" t="n">
         <v>65</v>
@@ -10061,19 +10061,19 @@
         <v>600</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AF79" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH79" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI79" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ79" t="n">
         <v>35</v>
@@ -10114,24 +10114,24 @@
         <v>2.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I80" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N80" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O80" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P80" t="n">
         <v>1.4</v>
@@ -10146,16 +10146,16 @@
         <v>2.07</v>
       </c>
       <c r="T80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V80" t="n">
         <v>8.25</v>
       </c>
       <c r="W80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X80" t="n">
         <v>16</v>
@@ -10164,34 +10164,34 @@
         <v>23</v>
       </c>
       <c r="Z80" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB80" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG80" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC80" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AH80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ80" t="n">
         <v>32</v>
@@ -10229,33 +10229,33 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H81" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I81" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M81" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="N81" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O81" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P81" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R81" t="n">
         <v>1.93</v>
@@ -10267,25 +10267,25 @@
         <v>5.9</v>
       </c>
       <c r="U81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V81" t="n">
         <v>8.5</v>
       </c>
       <c r="W81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X81" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y81" t="n">
         <v>35</v>
       </c>
       <c r="Z81" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB81" t="n">
         <v>17.5</v>
@@ -10297,13 +10297,13 @@
         <v>900</v>
       </c>
       <c r="AE81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH81" t="n">
         <v>70</v>
@@ -10347,27 +10347,27 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I82" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M82" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N82" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O82" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10382,28 +10382,28 @@
         <v>2</v>
       </c>
       <c r="T82" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V82" t="n">
         <v>7.7</v>
       </c>
       <c r="W82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X82" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y82" t="n">
         <v>21</v>
       </c>
       <c r="Z82" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB82" t="n">
         <v>13.5</v>
@@ -10415,19 +10415,19 @@
         <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG82" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI82" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ82" t="n">
         <v>45</v>
@@ -10486,10 +10486,10 @@
         <v>3.5</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O83" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -10498,13 +10498,13 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U83" t="n">
         <v>6.5</v>
@@ -10608,10 +10608,10 @@
         <v>2.25</v>
       </c>
       <c r="N84" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P84" t="n">
         <v>1.62</v>
@@ -10736,10 +10736,10 @@
         <v>1.33</v>
       </c>
       <c r="P85" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R85" t="n">
         <v>2.5</v>
@@ -10831,13 +10831,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J86" t="n">
         <v>1.1</v>
@@ -10906,13 +10906,13 @@
         <v>6.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG86" t="n">
         <v>11</v>
       </c>
       <c r="AH86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI86" t="n">
         <v>26</v>
@@ -10953,13 +10953,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I87" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.7</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10968,34 +10968,34 @@
         <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N87" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O87" t="n">
         <v>1.88</v>
       </c>
-      <c r="O87" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R87" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T87" t="n">
         <v>7.5</v>
       </c>
       <c r="U87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V87" t="n">
         <v>8.5</v>
@@ -11010,10 +11010,10 @@
         <v>26</v>
       </c>
       <c r="Z87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
         <v>15</v>
@@ -11022,13 +11022,13 @@
         <v>51</v>
       </c>
       <c r="AD87" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG87" t="n">
         <v>13</v>
@@ -11197,91 +11197,91 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M89" t="n">
         <v>3.2</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K89" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2.92</v>
-      </c>
       <c r="N89" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="O89" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="P89" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R89" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S89" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="U89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V89" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W89" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="X89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y89" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AA89" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD89" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE89" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AG89" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI89" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ89" t="n">
         <v>40</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K90" t="n">
         <v>6.3</v>
@@ -11340,7 +11340,7 @@
         <v>2.67</v>
       </c>
       <c r="N90" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O90" t="n">
         <v>1.6</v>
@@ -11352,13 +11352,13 @@
         <v>2.5</v>
       </c>
       <c r="R90" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S90" t="n">
         <v>1.75</v>
       </c>
       <c r="T90" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U90" t="n">
         <v>9.75</v>
@@ -11388,7 +11388,7 @@
         <v>100</v>
       </c>
       <c r="AD90" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE90" t="n">
         <v>7.9</v>
@@ -11397,7 +11397,7 @@
         <v>14.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH90" t="n">
         <v>37</v>
@@ -11453,7 +11453,7 @@
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.34</v>
@@ -11471,7 +11471,7 @@
         <v>1.45</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R91" t="n">
         <v>2</v>
@@ -11480,10 +11480,10 @@
         <v>1.72</v>
       </c>
       <c r="T91" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U91" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V91" t="n">
         <v>8.25</v>
@@ -11495,10 +11495,10 @@
         <v>14</v>
       </c>
       <c r="Y91" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z91" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA91" t="n">
         <v>7.1</v>
@@ -11516,7 +11516,7 @@
         <v>12.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG91" t="n">
         <v>17</v>
@@ -11569,13 +11569,13 @@
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J92" t="n">
         <v>1.1</v>
       </c>
       <c r="K92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L92" t="n">
         <v>1.47</v>
@@ -11587,40 +11587,40 @@
         <v>2.35</v>
       </c>
       <c r="O92" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P92" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="R92" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S92" t="n">
         <v>1.7</v>
       </c>
       <c r="T92" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U92" t="n">
         <v>9</v>
       </c>
       <c r="V92" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W92" t="n">
         <v>19.5</v>
       </c>
       <c r="X92" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y92" t="n">
         <v>37</v>
       </c>
       <c r="Z92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA92" t="n">
         <v>6</v>
@@ -11644,7 +11644,7 @@
         <v>13</v>
       </c>
       <c r="AH92" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI92" t="n">
         <v>40</v>
@@ -11807,13 +11807,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I94" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J94" t="n">
         <v>1.1</v>
@@ -11828,10 +11828,10 @@
         <v>2.5</v>
       </c>
       <c r="N94" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O94" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P94" t="n">
         <v>1.57</v>
@@ -11840,25 +11840,25 @@
         <v>2.27</v>
       </c>
       <c r="R94" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S94" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T94" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U94" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V94" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W94" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X94" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y94" t="n">
         <v>45</v>
@@ -11867,31 +11867,31 @@
         <v>5.7</v>
       </c>
       <c r="AA94" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB94" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD94" t="n">
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF94" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI94" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ94" t="n">
         <v>45</v>
@@ -11932,64 +11932,64 @@
         <v>1.13</v>
       </c>
       <c r="H95" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J95" t="n">
         <v>1.05</v>
       </c>
       <c r="K95" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M95" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N95" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O95" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="R95" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="S95" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T95" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U95" t="n">
         <v>4.45</v>
       </c>
       <c r="V95" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X95" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y95" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z95" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA95" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB95" t="n">
         <v>70</v>
@@ -12004,7 +12004,7 @@
         <v>50</v>
       </c>
       <c r="AF95" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AG95" t="n">
         <v>110</v>
@@ -12016,7 +12016,7 @@
         <v>800</v>
       </c>
       <c r="AJ95" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96">
@@ -12051,91 +12051,91 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I96" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J96" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K96" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="L96" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="N96" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="O96" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P96" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R96" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S96" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T96" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="U96" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V96" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W96" t="n">
         <v>23</v>
       </c>
       <c r="X96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y96" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z96" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA96" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC96" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD96" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE96" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF96" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH96" t="n">
         <v>50</v>
       </c>
       <c r="AI96" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ96" t="n">
         <v>40</v>
@@ -12295,27 +12295,27 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="H98" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I98" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M98" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="N98" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O98" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P98" t="n">
         <v>1.37</v>
@@ -12324,58 +12324,58 @@
         <v>2.5</v>
       </c>
       <c r="R98" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="S98" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T98" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U98" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="V98" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="W98" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X98" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z98" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA98" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB98" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE98" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF98" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH98" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI98" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ98" t="n">
         <v>21</v>
@@ -12413,13 +12413,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="H99" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I99" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12430,69 +12430,69 @@
         <v>4.2</v>
       </c>
       <c r="N99" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O99" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="S99" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="T99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W99" t="n">
         <v>6.3</v>
-      </c>
-      <c r="U99" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="V99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="W99" t="n">
-        <v>5.8</v>
       </c>
       <c r="X99" t="n">
         <v>8.75</v>
       </c>
       <c r="Y99" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA99" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AB99" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC99" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AD99" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE99" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF99" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI99" t="n">
         <v>120</v>
       </c>
-      <c r="AG99" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>200</v>
-      </c>
       <c r="AJ99" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -12527,13 +12527,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J100" t="n">
         <v>1.04</v>
@@ -12542,16 +12542,16 @@
         <v>13</v>
       </c>
       <c r="L100" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M100" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O100" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P100" t="n">
         <v>1.33</v>
@@ -12560,25 +12560,25 @@
         <v>3.25</v>
       </c>
       <c r="R100" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S100" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W100" t="n">
         <v>41</v>
       </c>
       <c r="X100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y100" t="n">
         <v>34</v>
@@ -12587,10 +12587,10 @@
         <v>13</v>
       </c>
       <c r="AA100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC100" t="n">
         <v>41</v>
@@ -12599,22 +12599,22 @@
         <v>151</v>
       </c>
       <c r="AE100" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG100" t="n">
         <v>8.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -12649,71 +12649,71 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I101" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M101" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N101" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S101" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="T101" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V101" t="n">
         <v>8.25</v>
       </c>
       <c r="W101" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X101" t="n">
         <v>14.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA101" t="n">
         <v>6.8</v>
       </c>
       <c r="AB101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC101" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD101" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE101" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF101" t="n">
         <v>21</v>
@@ -12728,7 +12728,7 @@
         <v>29</v>
       </c>
       <c r="AJ101" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -12763,82 +12763,82 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I102" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K102" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L102" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M102" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O102" t="n">
         <v>1.75</v>
       </c>
-      <c r="O102" t="n">
-        <v>2.05</v>
-      </c>
       <c r="P102" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q102" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R102" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S102" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T102" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V102" t="n">
         <v>8.5</v>
       </c>
       <c r="W102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB102" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC102" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD102" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE102" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG102" t="n">
         <v>19</v>
@@ -12850,7 +12850,7 @@
         <v>41</v>
       </c>
       <c r="AJ102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103">
@@ -12885,31 +12885,31 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.3</v>
       </c>
-      <c r="H103" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I103" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="J103" t="n">
         <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L103" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M103" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N103" t="n">
         <v>2.05</v>
       </c>
       <c r="O103" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P103" t="n">
         <v>1.44</v>
@@ -12924,19 +12924,19 @@
         <v>1.91</v>
       </c>
       <c r="T103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U103" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X103" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y103" t="n">
         <v>34</v>
@@ -12957,19 +12957,19 @@
         <v>251</v>
       </c>
       <c r="AE103" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH103" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI103" t="n">
         <v>19</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>17</v>
       </c>
       <c r="AJ103" t="n">
         <v>29</v>
@@ -13007,13 +13007,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="H104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I104" t="n">
         <v>6.5</v>
-      </c>
-      <c r="I104" t="n">
-        <v>8</v>
       </c>
       <c r="J104" t="n">
         <v>1.03</v>
@@ -13022,76 +13022,76 @@
         <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q104" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R104" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S104" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
       </c>
       <c r="U104" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X104" t="n">
         <v>12</v>
       </c>
       <c r="Y104" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA104" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB104" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC104" t="n">
         <v>81</v>
       </c>
       <c r="AD104" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH104" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ104" t="n">
         <v>51</v>
@@ -13129,13 +13129,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H105" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J105" t="n">
         <v>1.08</v>
@@ -13144,10 +13144,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M105" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N105" t="n">
         <v>2.25</v>
@@ -13168,10 +13168,10 @@
         <v>1.8</v>
       </c>
       <c r="T105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V105" t="n">
         <v>13</v>
@@ -13192,22 +13192,22 @@
         <v>6</v>
       </c>
       <c r="AB105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC105" t="n">
         <v>51</v>
       </c>
       <c r="AD105" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE105" t="n">
         <v>6.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH105" t="n">
         <v>19</v>
@@ -13251,19 +13251,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I106" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L106" t="n">
         <v>1.33</v>
@@ -13284,16 +13284,16 @@
         <v>2.63</v>
       </c>
       <c r="R106" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T106" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
@@ -13317,10 +13317,10 @@
         <v>17</v>
       </c>
       <c r="AC106" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD106" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE106" t="n">
         <v>12</v>
@@ -13329,7 +13329,7 @@
         <v>23</v>
       </c>
       <c r="AG106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH106" t="n">
         <v>51</v>
@@ -13338,7 +13338,7 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
@@ -13406,13 +13406,13 @@
         <v>3</v>
       </c>
       <c r="R107" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T107" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U107" t="n">
         <v>7</v>
@@ -13424,7 +13424,7 @@
         <v>10</v>
       </c>
       <c r="X107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y107" t="n">
         <v>26</v>
@@ -13495,31 +13495,31 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I108" t="n">
+        <v>17</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15</v>
+      </c>
+      <c r="L108" t="n">
         <v>1.2</v>
       </c>
-      <c r="H108" t="n">
-        <v>6</v>
-      </c>
-      <c r="I108" t="n">
-        <v>15</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K108" t="n">
-        <v>13</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.22</v>
-      </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
         <v>1.33</v>
@@ -13534,13 +13534,13 @@
         <v>1.44</v>
       </c>
       <c r="T108" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U108" t="n">
         <v>5.5</v>
       </c>
       <c r="V108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W108" t="n">
         <v>6.5</v>
@@ -13617,19 +13617,19 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H109" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.08</v>
       </c>
       <c r="K109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L109" t="n">
         <v>1.4</v>
@@ -13638,10 +13638,10 @@
         <v>2.75</v>
       </c>
       <c r="N109" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O109" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P109" t="n">
         <v>1.5</v>
@@ -13659,16 +13659,16 @@
         <v>6.5</v>
       </c>
       <c r="U109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V109" t="n">
         <v>9.5</v>
       </c>
       <c r="W109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y109" t="n">
         <v>34</v>
@@ -13689,7 +13689,7 @@
         <v>351</v>
       </c>
       <c r="AE109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF109" t="n">
         <v>17</v>
@@ -13739,13 +13739,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H110" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I110" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
         <v>1.05</v>
@@ -13781,13 +13781,13 @@
         <v>8</v>
       </c>
       <c r="U110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X110" t="n">
         <v>17</v>
@@ -13796,22 +13796,22 @@
         <v>26</v>
       </c>
       <c r="Z110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA110" t="n">
         <v>6.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC110" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD110" t="n">
         <v>201</v>
       </c>
       <c r="AE110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF110" t="n">
         <v>17</v>
@@ -13820,10 +13820,10 @@
         <v>12</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ110" t="n">
         <v>34</v>
@@ -13861,13 +13861,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13882,10 +13882,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O111" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13900,22 +13900,22 @@
         <v>2.1</v>
       </c>
       <c r="T111" t="n">
+        <v>9</v>
+      </c>
+      <c r="U111" t="n">
+        <v>12</v>
+      </c>
+      <c r="V111" t="n">
         <v>9.5</v>
       </c>
-      <c r="U111" t="n">
-        <v>13</v>
-      </c>
-      <c r="V111" t="n">
-        <v>10</v>
-      </c>
       <c r="W111" t="n">
+        <v>23</v>
+      </c>
+      <c r="X111" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y111" t="n">
         <v>26</v>
-      </c>
-      <c r="X111" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>29</v>
       </c>
       <c r="Z111" t="n">
         <v>10</v>
@@ -13933,19 +13933,19 @@
         <v>151</v>
       </c>
       <c r="AE111" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ111" t="n">
         <v>29</v>
@@ -14004,7 +14004,7 @@
         <v>2.75</v>
       </c>
       <c r="N112" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O112" t="n">
         <v>1.57</v>
@@ -14129,7 +14129,7 @@
         <v>2.1</v>
       </c>
       <c r="O113" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P113" t="n">
         <v>1.44</v>
@@ -14227,13 +14227,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H114" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I114" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J114" t="n">
         <v>1.04</v>
@@ -14242,16 +14242,16 @@
         <v>9</v>
       </c>
       <c r="L114" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M114" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O114" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14272,7 +14272,7 @@
         <v>11</v>
       </c>
       <c r="V114" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W114" t="n">
         <v>17</v>
@@ -14370,10 +14370,10 @@
         <v>4.33</v>
       </c>
       <c r="N115" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P115" t="n">
         <v>1.3</v>
@@ -14418,7 +14418,7 @@
         <v>67</v>
       </c>
       <c r="AD115" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE115" t="n">
         <v>21</v>
@@ -14471,19 +14471,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J116" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K116" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L116" t="n">
         <v>1.2</v>
@@ -14492,10 +14492,10 @@
         <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O116" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P116" t="n">
         <v>1.33</v>
@@ -14510,22 +14510,22 @@
         <v>2.25</v>
       </c>
       <c r="T116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U116" t="n">
         <v>17</v>
       </c>
       <c r="V116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W116" t="n">
+        <v>34</v>
+      </c>
+      <c r="X116" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y116" t="n">
         <v>29</v>
-      </c>
-      <c r="X116" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>26</v>
       </c>
       <c r="Z116" t="n">
         <v>13</v>
@@ -14546,7 +14546,7 @@
         <v>10</v>
       </c>
       <c r="AF116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG116" t="n">
         <v>9.5</v>
@@ -14593,19 +14593,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J117" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L117" t="n">
         <v>1.4</v>
@@ -14635,13 +14635,13 @@
         <v>6.5</v>
       </c>
       <c r="U117" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V117" t="n">
         <v>9.5</v>
       </c>
       <c r="W117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X117" t="n">
         <v>19</v>
@@ -14665,13 +14665,13 @@
         <v>1000</v>
       </c>
       <c r="AE117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH117" t="n">
         <v>41</v>
@@ -14772,7 +14772,7 @@
         <v>41</v>
       </c>
       <c r="Z118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA118" t="n">
         <v>6</v>
@@ -14787,7 +14787,7 @@
         <v>1000</v>
       </c>
       <c r="AE118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF118" t="n">
         <v>12</v>
@@ -14959,13 +14959,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
         <v>1.08</v>
@@ -14974,10 +14974,10 @@
         <v>7</v>
       </c>
       <c r="L120" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N120" t="n">
         <v>2.35</v>
@@ -15019,7 +15019,7 @@
         <v>7</v>
       </c>
       <c r="AA120" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB120" t="n">
         <v>19</v>
@@ -15081,19 +15081,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K121" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L121" t="n">
         <v>1.33</v>
@@ -15102,10 +15102,10 @@
         <v>3.25</v>
       </c>
       <c r="N121" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O121" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15114,10 +15114,10 @@
         <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S121" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T121" t="n">
         <v>6</v>
@@ -15159,7 +15159,7 @@
         <v>29</v>
       </c>
       <c r="AG121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH121" t="n">
         <v>67</v>
@@ -15272,7 +15272,7 @@
         <v>51</v>
       </c>
       <c r="AD122" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE122" t="n">
         <v>13</v>
@@ -15325,37 +15325,37 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I123" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M123" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N123" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O123" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="P123" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R123" t="n">
         <v>1.95</v>
@@ -15364,7 +15364,7 @@
         <v>1.8</v>
       </c>
       <c r="T123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U123" t="n">
         <v>7</v>
@@ -15373,22 +15373,22 @@
         <v>8.5</v>
       </c>
       <c r="W123" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z123" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB123" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC123" t="n">
         <v>51</v>
@@ -15397,16 +15397,16 @@
         <v>301</v>
       </c>
       <c r="AE123" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF123" t="n">
         <v>41</v>
       </c>
       <c r="AG123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH123" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="n">
         <v>51</v>
@@ -15447,13 +15447,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H124" t="n">
         <v>3.25</v>
       </c>
       <c r="I124" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J124" t="n">
         <v>1.06</v>
@@ -15462,31 +15462,31 @@
         <v>10</v>
       </c>
       <c r="L124" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M124" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N124" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="O124" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P124" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R124" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S124" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U124" t="n">
         <v>13</v>
@@ -15504,19 +15504,19 @@
         <v>29</v>
       </c>
       <c r="Z124" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA124" t="n">
         <v>6</v>
       </c>
       <c r="AB124" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC124" t="n">
         <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE124" t="n">
         <v>8.5</v>
@@ -15587,13 +15587,13 @@
         <v>1.28</v>
       </c>
       <c r="M125" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N125" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O125" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P125" t="n">
         <v>1.42</v>
@@ -15602,16 +15602,16 @@
         <v>2.67</v>
       </c>
       <c r="R125" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S125" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T125" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U125" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V125" t="n">
         <v>8.25</v>
@@ -15623,7 +15623,7 @@
         <v>15</v>
       </c>
       <c r="Y125" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z125" t="n">
         <v>7.3</v>
@@ -15653,10 +15653,10 @@
         <v>60</v>
       </c>
       <c r="AI125" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ125" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126">
@@ -15813,13 +15813,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H127" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I127" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="J127" t="n">
         <v>1.03</v>
@@ -15828,16 +15828,16 @@
         <v>9</v>
       </c>
       <c r="L127" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M127" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="N127" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O127" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P127" t="n">
         <v>1.3</v>
@@ -15846,25 +15846,25 @@
         <v>3.2</v>
       </c>
       <c r="R127" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T127" t="n">
         <v>9</v>
       </c>
       <c r="U127" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V127" t="n">
         <v>8.25</v>
       </c>
       <c r="W127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X127" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y127" t="n">
         <v>20</v>
@@ -15873,34 +15873,34 @@
         <v>9</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB127" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG127" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC127" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH127" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI127" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ127" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128">
@@ -16057,13 +16057,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H129" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J129" t="n">
         <v>1.03</v>
@@ -16084,10 +16084,10 @@
         <v>2.3</v>
       </c>
       <c r="P129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R129" t="n">
         <v>2</v>
@@ -16117,7 +16117,7 @@
         <v>13</v>
       </c>
       <c r="AA129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB129" t="n">
         <v>21</v>
@@ -16129,13 +16129,13 @@
         <v>351</v>
       </c>
       <c r="AE129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF129" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH129" t="n">
         <v>126</v>
@@ -16144,7 +16144,7 @@
         <v>67</v>
       </c>
       <c r="AJ129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130">
@@ -16179,13 +16179,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H130" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -16194,40 +16194,40 @@
         <v>17</v>
       </c>
       <c r="L130" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M130" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R130" t="n">
         <v>1.57</v>
       </c>
-      <c r="O130" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V130" t="n">
         <v>15</v>
       </c>
       <c r="W130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X130" t="n">
         <v>34</v>
@@ -16236,7 +16236,7 @@
         <v>34</v>
       </c>
       <c r="Z130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA130" t="n">
         <v>8</v>
@@ -16248,10 +16248,10 @@
         <v>41</v>
       </c>
       <c r="AD130" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF130" t="n">
         <v>9.5</v>
@@ -16260,10 +16260,10 @@
         <v>8.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ130" t="n">
         <v>21</v>
@@ -16301,73 +16301,73 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="I131" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J131" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="K131" t="n">
-        <v>5.6</v>
+        <v>4.35</v>
       </c>
       <c r="L131" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M131" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="N131" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O131" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P131" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="R131" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S131" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T131" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U131" t="n">
         <v>18.5</v>
       </c>
       <c r="V131" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W131" t="n">
         <v>65</v>
       </c>
       <c r="X131" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y131" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z131" t="n">
-        <v>6</v>
+        <v>4.65</v>
       </c>
       <c r="AA131" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC131" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD131" t="n">
         <v>800</v>
@@ -16376,16 +16376,16 @@
         <v>5.1</v>
       </c>
       <c r="AF131" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH131" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI131" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ131" t="n">
         <v>50</v>
@@ -16429,7 +16429,7 @@
         <v>5.7</v>
       </c>
       <c r="I132" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -16446,10 +16446,10 @@
         <v>2.18</v>
       </c>
       <c r="P132" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q132" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R132" t="n">
         <v>2.18</v>
@@ -16485,13 +16485,13 @@
         <v>30</v>
       </c>
       <c r="AC132" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD132" t="n">
         <v>101</v>
       </c>
       <c r="AE132" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF132" t="n">
         <v>90</v>
@@ -16666,10 +16666,10 @@
         <v>6.5</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I134" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J134" t="n">
         <v>1.05</v>
@@ -16711,7 +16711,7 @@
         <v>21</v>
       </c>
       <c r="W134" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X134" t="n">
         <v>51</v>
@@ -16744,7 +16744,7 @@
         <v>8.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI134" t="n">
         <v>13</v>
@@ -16785,13 +16785,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H135" t="n">
         <v>3.3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J135" t="n">
         <v>1.07</v>
@@ -16800,10 +16800,10 @@
         <v>9</v>
       </c>
       <c r="L135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M135" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N135" t="n">
         <v>2.2</v>
@@ -16818,16 +16818,16 @@
         <v>2.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S135" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T135" t="n">
         <v>6.5</v>
       </c>
       <c r="U135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V135" t="n">
         <v>9</v>
@@ -16851,7 +16851,7 @@
         <v>17</v>
       </c>
       <c r="AC135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD135" t="n">
         <v>351</v>
@@ -16860,7 +16860,7 @@
         <v>9.5</v>
       </c>
       <c r="AF135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG135" t="n">
         <v>13</v>
@@ -16907,13 +16907,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16922,16 +16922,16 @@
         <v>6.2</v>
       </c>
       <c r="L136" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M136" t="n">
         <v>2.62</v>
       </c>
       <c r="N136" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O136" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P136" t="n">
         <v>1.47</v>
@@ -16946,16 +16946,16 @@
         <v>1.8</v>
       </c>
       <c r="T136" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="U136" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="V136" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W136" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X136" t="n">
         <v>22</v>
@@ -16964,37 +16964,37 @@
         <v>35</v>
       </c>
       <c r="Z136" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD136" t="n">
         <v>700</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF136" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH136" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ136" t="n">
         <v>40</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="137">
@@ -17029,13 +17029,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -17064,25 +17064,25 @@
         <v>1.91</v>
       </c>
       <c r="T137" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U137" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V137" t="n">
         <v>9</v>
       </c>
       <c r="W137" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X137" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y137" t="n">
         <v>29</v>
       </c>
       <c r="Z137" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA137" t="n">
         <v>6.1</v>
@@ -17097,10 +17097,10 @@
         <v>500</v>
       </c>
       <c r="AE137" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF137" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG137" t="n">
         <v>10.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1026,28 +1026,28 @@
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
@@ -1059,46 +1059,46 @@
         <v>8.5</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1166,28 +1166,28 @@
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1202,22 +1202,22 @@
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1380,7 +1380,7 @@
         <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -1398,10 +1398,10 @@
         <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
@@ -1425,22 +1425,22 @@
         <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1461,10 +1461,10 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -2540,46 +2540,46 @@
         <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.1</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
@@ -2591,25 +2591,25 @@
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
@@ -2674,16 +2674,16 @@
         <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2752,7 +2752,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UepstzTj</t>
+          <t>A3Rilxx9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2762,115 +2762,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sloboda</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11</v>
+      </c>
+      <c r="W20" t="n">
+        <v>34</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE20" t="n">
         <v>8.5</v>
       </c>
-      <c r="U20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>65</v>
-      </c>
-      <c r="X20" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
         <v>21</v>
       </c>
-      <c r="AC20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vVZQuRY7</t>
+          <t>G46WtfUr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2880,115 +2884,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GOSK Gabela</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N21" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>28</v>
+        <v>7.5</v>
       </c>
       <c r="V21" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A3Rilxx9</t>
+          <t>2c4QXGiS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2998,7 +3006,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3008,109 +3016,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AJ22" t="n">
         <v>41</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G46WtfUr</t>
+          <t>b3dJLtQs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3120,119 +3128,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
         <v>21</v>
       </c>
-      <c r="AC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2c4QXGiS</t>
+          <t>YiuDxRP9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3242,119 +3250,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1.33</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="T24" t="n">
-        <v>17</v>
+        <v>6.7</v>
       </c>
       <c r="U24" t="n">
-        <v>41</v>
+        <v>9.25</v>
       </c>
       <c r="V24" t="n">
-        <v>29</v>
+        <v>9.25</v>
       </c>
       <c r="W24" t="n">
-        <v>126</v>
+        <v>17.5</v>
       </c>
       <c r="X24" t="n">
-        <v>81</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4W1vnVVA</t>
+          <t>vgKiVrIq</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3364,119 +3372,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CANADA - CANADIAN PREMIER LEAGUE</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cavalry</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vancouver FC</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="H25" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>8.25</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="N25" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T25" t="n">
         <v>6.3</v>
       </c>
       <c r="U25" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="V25" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.25</v>
+        <v>6.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>20</v>
-      </c>
       <c r="AH25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b3dJLtQs</t>
+          <t>C6IaTMnd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3486,113 +3494,113 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="N26" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="V26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
         <v>9.5</v>
       </c>
-      <c r="W26" t="n">
-        <v>21</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>11</v>
-      </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -3627,31 +3635,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3669,16 +3677,16 @@
         <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
@@ -3687,10 +3695,10 @@
         <v>9.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>51</v>
@@ -3699,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>13</v>
@@ -3711,7 +3719,7 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>41</v>
@@ -3752,7 +3760,7 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
         <v>6</v>
@@ -3761,7 +3769,7 @@
         <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3782,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
         <v>7</v>
@@ -3797,16 +3805,16 @@
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>8</v>
@@ -3818,7 +3826,7 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -3833,10 +3841,10 @@
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -12588,7 +12596,7 @@
         <v>4.5</v>
       </c>
       <c r="H101" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I101" t="n">
         <v>1.8</v>
@@ -12606,10 +12614,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -12618,10 +12626,10 @@
         <v>3.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -12633,7 +12641,7 @@
         <v>15</v>
       </c>
       <c r="W101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X101" t="n">
         <v>34</v>
@@ -12657,7 +12665,7 @@
         <v>151</v>
       </c>
       <c r="AE101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF101" t="n">
         <v>9.5</v>
@@ -12707,7 +12715,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H102" t="n">
         <v>3.6</v>
@@ -12718,16 +12726,16 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M102" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N102" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O102" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
@@ -12735,13 +12743,13 @@
         <v>1.57</v>
       </c>
       <c r="S102" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T102" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U102" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V102" t="n">
         <v>8.25</v>
@@ -12753,19 +12761,19 @@
         <v>14</v>
       </c>
       <c r="Y102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA102" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB102" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC102" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD102" t="n">
         <v>300</v>
@@ -12774,7 +12782,7 @@
         <v>13</v>
       </c>
       <c r="AF102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG102" t="n">
         <v>12</v>
@@ -12943,85 +12951,85 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L104" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N104" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P104" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R104" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U104" t="n">
         <v>15</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W104" t="n">
+        <v>34</v>
+      </c>
+      <c r="X104" t="n">
         <v>29</v>
       </c>
-      <c r="X104" t="n">
-        <v>23</v>
-      </c>
       <c r="Y104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z104" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
         <v>51</v>
       </c>
       <c r="AD104" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH104" t="n">
         <v>21</v>
@@ -13030,7 +13038,7 @@
         <v>21</v>
       </c>
       <c r="AJ104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -13065,13 +13073,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H105" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J105" t="n">
         <v>1.03</v>
@@ -13086,10 +13094,10 @@
         <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O105" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P105" t="n">
         <v>1.33</v>
@@ -13098,22 +13106,22 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S105" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
       </c>
       <c r="U105" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X105" t="n">
         <v>12</v>
@@ -13128,19 +13136,19 @@
         <v>11</v>
       </c>
       <c r="AB105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC105" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD105" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
         <v>17</v>
       </c>
       <c r="AF105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG105" t="n">
         <v>21</v>
@@ -16846,46 +16854,46 @@
         <v>1.95</v>
       </c>
       <c r="H136" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K136" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L136" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M136" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N136" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O136" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P136" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R136" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S136" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T136" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V136" t="n">
         <v>9</v>
@@ -16894,19 +16902,19 @@
         <v>17</v>
       </c>
       <c r="X136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y136" t="n">
         <v>34</v>
       </c>
       <c r="Z136" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA136" t="n">
         <v>6.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC136" t="n">
         <v>67</v>
@@ -16915,19 +16923,19 @@
         <v>351</v>
       </c>
       <c r="AE136" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF136" t="n">
         <v>19</v>
       </c>
       <c r="AG136" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH136" t="n">
         <v>41</v>
       </c>
       <c r="AI136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ136" t="n">
         <v>41</v>
@@ -17087,13 +17095,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H138" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I138" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -17119,22 +17127,22 @@
         <v>1.72</v>
       </c>
       <c r="S138" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T138" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U138" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V138" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W138" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X138" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y138" t="n">
         <v>29</v>
@@ -17146,7 +17154,7 @@
         <v>6.1</v>
       </c>
       <c r="AB138" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC138" t="n">
         <v>65</v>
@@ -17155,19 +17163,19 @@
         <v>500</v>
       </c>
       <c r="AE138" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF138" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AG138" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH138" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI138" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ138" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1392,10 +1392,10 @@
         <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.5</v>
@@ -1404,22 +1404,22 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>9.5</v>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
         <v>6.5</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -2674,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>2.1</v>
@@ -2752,7 +2752,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A3Rilxx9</t>
+          <t>UepstzTj</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2762,119 +2762,115 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Sloboda</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11</v>
-      </c>
+        <v>1.93</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="N20" t="n">
-        <v>1.95</v>
+        <v>2.37</v>
       </c>
       <c r="O20" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="W20" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AD20" t="n">
-        <v>201</v>
+        <v>700</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G46WtfUr</t>
+          <t>vVZQuRY7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2884,119 +2880,115 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>GOSK Gabela</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>28</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>11.25</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2c4QXGiS</t>
+          <t>A3Rilxx9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3006,7 +2998,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3016,109 +3008,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" t="n">
         <v>17</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
+        <v>11</v>
+      </c>
+      <c r="W22" t="n">
+        <v>34</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC22" t="n">
         <v>41</v>
       </c>
-      <c r="V22" t="n">
-        <v>29</v>
-      </c>
-      <c r="W22" t="n">
-        <v>126</v>
-      </c>
-      <c r="X22" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>101</v>
-      </c>
       <c r="AD22" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b3dJLtQs</t>
+          <t>G46WtfUr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3128,119 +3120,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="n">
         <v>41</v>
       </c>
-      <c r="AD23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>YiuDxRP9</t>
+          <t>2c4QXGiS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3250,119 +3242,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>9.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>1.33</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>6.7</v>
+        <v>17</v>
       </c>
       <c r="U24" t="n">
-        <v>9.25</v>
+        <v>41</v>
       </c>
       <c r="V24" t="n">
-        <v>9.25</v>
+        <v>29</v>
       </c>
       <c r="W24" t="n">
-        <v>17.5</v>
+        <v>126</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AD24" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.75</v>
+        <v>5.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vgKiVrIq</t>
+          <t>4W1vnVVA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3372,119 +3364,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>CANADA - CANADIAN PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Cavalry</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Vancouver FC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>4.65</v>
       </c>
       <c r="I25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M25" t="n">
         <v>3.65</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U25" t="n">
         <v>6.6</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
+        <v>9</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA25" t="n">
         <v>9.5</v>
       </c>
-      <c r="V25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>20</v>
-      </c>
-      <c r="X25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI25" t="n">
         <v>100</v>
       </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C6IaTMnd</t>
+          <t>b3dJLtQs</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3494,113 +3486,113 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="V26" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3763,7 +3755,7 @@
         <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3790,10 +3782,10 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -3808,7 +3800,7 @@
         <v>11</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
@@ -3832,7 +3824,7 @@
         <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
         <v>19</v>
@@ -12593,13 +12585,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H101" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I101" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
@@ -12715,13 +12707,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H102" t="n">
         <v>3.6</v>
       </c>
       <c r="I102" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -12746,7 +12738,7 @@
         <v>2.12</v>
       </c>
       <c r="T102" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U102" t="n">
         <v>10.25</v>
@@ -12755,25 +12747,25 @@
         <v>8.25</v>
       </c>
       <c r="W102" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X102" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y102" t="n">
         <v>21</v>
       </c>
       <c r="Z102" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA102" t="n">
         <v>7.2</v>
       </c>
       <c r="AB102" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC102" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD102" t="n">
         <v>300</v>
@@ -12791,10 +12783,10 @@
         <v>50</v>
       </c>
       <c r="AI102" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ102" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -13142,7 +13134,7 @@
         <v>81</v>
       </c>
       <c r="AD105" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE105" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1276,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
@@ -1303,22 +1303,22 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
+        <v>29</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
         <v>34</v>
       </c>
-      <c r="X7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>41</v>
-      </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1327,16 +1327,16 @@
         <v>351</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1410,22 +1410,22 @@
         <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1449,22 +1449,22 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -2659,25 +2659,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>2.1</v>
@@ -2704,7 +2704,7 @@
         <v>9.5</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
         <v>19</v>
@@ -2716,7 +2716,7 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
         <v>6.5</v>
@@ -2728,10 +2728,10 @@
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3782,16 +3782,16 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3827,7 +3827,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
         <v>67</v>
@@ -12585,13 +12585,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
@@ -12606,10 +12606,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O101" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -12618,58 +12618,58 @@
         <v>3.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S101" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
       </c>
       <c r="U101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V101" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z101" t="n">
         <v>13</v>
       </c>
       <c r="AA101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC101" t="n">
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE101" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG101" t="n">
         <v>8.5</v>
       </c>
       <c r="AH101" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI101" t="n">
         <v>15</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>13</v>
       </c>
       <c r="AJ101" t="n">
         <v>21</v>
@@ -12707,27 +12707,27 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I102" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M102" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O102" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
@@ -12741,28 +12741,28 @@
         <v>9</v>
       </c>
       <c r="U102" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="V102" t="n">
         <v>8.25</v>
       </c>
       <c r="W102" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="X102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB102" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>13</v>
       </c>
       <c r="AC102" t="n">
         <v>50</v>
@@ -12771,22 +12771,22 @@
         <v>300</v>
       </c>
       <c r="AE102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF102" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG102" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH102" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI102" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ102" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -13065,19 +13065,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J105" t="n">
         <v>1.03</v>
       </c>
       <c r="K105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
         <v>1.22</v>
@@ -13098,10 +13098,10 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S105" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -13125,7 +13125,7 @@
         <v>15</v>
       </c>
       <c r="AA105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB105" t="n">
         <v>26</v>
@@ -13146,7 +13146,7 @@
         <v>21</v>
       </c>
       <c r="AH105" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI105" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-18.xlsx
@@ -2752,7 +2752,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UepstzTj</t>
+          <t>A3Rilxx9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2762,115 +2762,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sloboda</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11</v>
+      </c>
+      <c r="W20" t="n">
+        <v>34</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE20" t="n">
         <v>8.5</v>
       </c>
-      <c r="U20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>65</v>
-      </c>
-      <c r="X20" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
         <v>21</v>
       </c>
-      <c r="AC20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vVZQuRY7</t>
+          <t>G46WtfUr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2880,115 +2884,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GOSK Gabela</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N21" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>28</v>
+        <v>7.5</v>
       </c>
       <c r="V21" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A3Rilxx9</t>
+          <t>2c4QXGiS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2998,7 +3006,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3008,109 +3016,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AJ22" t="n">
         <v>41</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G46WtfUr</t>
+          <t>b3dJLtQs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3120,119 +3128,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
         <v>21</v>
       </c>
-      <c r="AC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2c4QXGiS</t>
+          <t>YiuDxRP9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3242,119 +3250,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1.33</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="T24" t="n">
-        <v>17</v>
+        <v>6.7</v>
       </c>
       <c r="U24" t="n">
-        <v>41</v>
+        <v>9.25</v>
       </c>
       <c r="V24" t="n">
-        <v>29</v>
+        <v>9.25</v>
       </c>
       <c r="W24" t="n">
-        <v>126</v>
+        <v>17.5</v>
       </c>
       <c r="X24" t="n">
-        <v>81</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4W1vnVVA</t>
+          <t>vgKiVrIq</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3364,119 +3372,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CANADA - CANADIAN PREMIER LEAGUE</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cavalry</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vancouver FC</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>2.07</v>
       </c>
       <c r="H25" t="n">
-        <v>4.65</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>8.75</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="N25" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T25" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>20</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="n">
         <v>6.6</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AA25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
         <v>9</v>
       </c>
-      <c r="W25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF25" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b3dJLtQs</t>
+          <t>C6IaTMnd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3486,113 +3494,113 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
         <v>9.5</v>
       </c>
-      <c r="U26" t="n">
-        <v>12</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>23</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>11</v>
-      </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
